--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86A07C12-9BB1-452E-A64A-A54998A21B9B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E64425-6E3B-4B73-8624-3099649B6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
   <si>
     <t>No of Day*</t>
   </si>
@@ -447,6 +447,192 @@
   </si>
   <si>
     <t xml:space="preserve">shared some page number( 19 - 26) </t>
+  </si>
+  <si>
+    <t>add is not allowed</t>
+  </si>
+  <si>
+    <t>()</t>
+  </si>
+  <si>
+    <t>Immutable</t>
+  </si>
+  <si>
+    <t>append() is not allowed</t>
+  </si>
+  <si>
+    <t>add() is not allowed</t>
+  </si>
+  <si>
+    <t>tuple is growable</t>
+  </si>
+  <si>
+    <t>remove is allowed</t>
+  </si>
+  <si>
+    <t>remove is not allowed</t>
+  </si>
+  <si>
+    <t>introudce to tuple</t>
+  </si>
+  <si>
+    <t>tuple is immutatable</t>
+  </si>
+  <si>
+    <t>enumerate,for loop, if loop</t>
+  </si>
+  <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Duplicates are not allwed </t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>slicing is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexing is not allowed  | membership </t>
+  </si>
+  <si>
+    <t>list in the set is imposible</t>
+  </si>
+  <si>
+    <t>tuple in the set is possible</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mutable &amp; immutable </t>
+  </si>
+  <si>
+    <t>set is growabl</t>
+  </si>
+  <si>
+    <t>range we cant pass more then 3 argument</t>
+  </si>
+  <si>
+    <t>range we cant pass float argument</t>
+  </si>
+  <si>
+    <t>print the element using range we completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to set </t>
+  </si>
+  <si>
+    <t>duplicates are not allwed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">set add functin Is works </t>
+  </si>
+  <si>
+    <t>discard is allwed but remove is allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">frozen set </t>
+  </si>
+  <si>
+    <t>once the identifier is freezed we cant add | removes | update | slicing is not allowed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intro to dict </t>
+  </si>
+  <si>
+    <t xml:space="preserve">{} empty dict </t>
+  </si>
+  <si>
+    <t>keys : values || we can pass any datatype as keys &amp; vlaues</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keys cannot be duplicaiton but values dupliation </t>
+  </si>
+  <si>
+    <t>you need to removes then only you need to del the values</t>
+  </si>
+  <si>
+    <t>while loop | syntax | how to print infinity values</t>
+  </si>
+  <si>
+    <t>math module &amp; how to work with math modules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataware house team ? What is the work </t>
+  </si>
+  <si>
+    <t xml:space="preserve">datasources - customer, api, weblog, straming, sensor etc, </t>
+  </si>
+  <si>
+    <t>application server vs production serveer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">basic operator with string, bool , and , or </t>
+  </si>
+  <si>
+    <t>please practise the dict from the book</t>
+  </si>
+  <si>
+    <t>I share the task to practise</t>
+  </si>
+  <si>
+    <t>1d arrya, 2d arry,3d array, multidimension array</t>
+  </si>
+  <si>
+    <t>Introduce to nupmpy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy is the package to handle multidimension array </t>
+  </si>
+  <si>
+    <t>sql query to extract the data from the database. Numpy to read the data from the system</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy applicaton -- ml, ai, opencv, speech to text </t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy functonality --&gt; arange() - print the element like range function </t>
+  </si>
+  <si>
+    <t>zeros ( print the element with zero)</t>
+  </si>
+  <si>
+    <t>ones( print the values with once)</t>
+  </si>
+  <si>
+    <t>randint -- generate random integer numer between the given range</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to print int </t>
+  </si>
+  <si>
+    <t>parameter tunning ( bydefault system asssinged)</t>
+  </si>
+  <si>
+    <t>hyperparameter tunning( used change the parameter as per requirent)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numpy as np || impurt numpy * </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shared 217 numpy functionality </t>
+  </si>
+  <si>
+    <t>A[2,3] -- 2nd rows, 3rd columns  bydefault</t>
+  </si>
+  <si>
+    <t>we discussed github</t>
+  </si>
+  <si>
+    <t xml:space="preserve">using help of chatgpto how to create git hub &amp; commit the code in github </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please completed 4 task &amp; 1 project </t>
+  </si>
+  <si>
+    <t>prepare a ppt, word file, notesbook ( author)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">github | linkedin </t>
   </si>
 </sst>
 </file>
@@ -531,7 +717,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -551,11 +737,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -871,26 +1060,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C125"/>
+  <dimension ref="A1:C187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C105" sqref="C105"/>
+    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C187" sqref="C187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="66.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -1514,69 +1703,403 @@
         <v>124</v>
       </c>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C113" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C114" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C115" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C116" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C117" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C118" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C119" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C120" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C121" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C122" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C123" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C124" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="4">
+        <v>45113</v>
+      </c>
+      <c r="B126" s="1">
+        <v>11</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C127" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C128" s="8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C129" s="8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C130" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C131" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C132" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C133" s="8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C134" s="8" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C135" s="8" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C136" s="8" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="C137" s="8" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C138" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="4">
+        <v>45114</v>
+      </c>
+      <c r="B139" s="1">
+        <v>12</v>
+      </c>
+      <c r="C139" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C140" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C141" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C142" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C143" s="1" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C144" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C145" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C146" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C147" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C148" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C149" s="1" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C150" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C151" s="1" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C152" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="4">
+        <v>45117</v>
+      </c>
+      <c r="B153" s="1">
+        <v>13</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C154" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C155" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C156" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C157" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C158" s="1" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C159" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C160" s="1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C161" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C162" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C163" s="1" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C164" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C165" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C166" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C167" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="4">
+        <v>45118</v>
+      </c>
+      <c r="B168" s="1">
+        <v>14</v>
+      </c>
+      <c r="C168" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C169" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C170" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C171" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C172" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C173" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C174" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C175" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C176" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C177" s="1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C178" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C179" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C180" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C181" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C182" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C183" s="1" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C184" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C185" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C186" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C187" s="1" t="s">
+        <v>199</v>
       </c>
     </row>
   </sheetData>
@@ -1590,31 +2113,32 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF59ADD-7C61-4F12-BB89-7013C9EB8F44}">
-  <dimension ref="B2:H12"/>
+  <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="6" max="6" width="22.453125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8" t="s">
+      <c r="C2" s="7"/>
+      <c r="D2" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="7"/>
+      <c r="F2" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8" t="s">
+      <c r="G2" s="7"/>
+      <c r="H2" s="7" t="s">
         <v>97</v>
       </c>
     </row>
@@ -1622,45 +2146,115 @@
       <c r="B4" t="s">
         <v>98</v>
       </c>
+      <c r="D4" t="s">
+        <v>139</v>
+      </c>
+      <c r="F4" t="s">
+        <v>149</v>
+      </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" t="s">
         <v>100</v>
       </c>
+      <c r="D5" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" t="s">
         <v>101</v>
       </c>
+      <c r="F6" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" t="s">
         <v>99</v>
       </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>102</v>
       </c>
+      <c r="D8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" t="s">
         <v>103</v>
       </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>104</v>
       </c>
+      <c r="D10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F10" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" t="s">
         <v>122</v>
       </c>
+      <c r="D11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F11" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" t="s">
         <v>123</v>
+      </c>
+      <c r="D12" t="s">
+        <v>143</v>
+      </c>
+      <c r="F12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>144</v>
+      </c>
+      <c r="D14" t="s">
+        <v>145</v>
+      </c>
+      <c r="F14" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64E64425-6E3B-4B73-8624-3099649B6550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE333E-3A46-4249-9528-8E9F1F79FA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="220">
   <si>
     <t>No of Day*</t>
   </si>
@@ -633,6 +633,66 @@
   </si>
   <si>
     <t xml:space="preserve">github | linkedin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">continue numpy || reshaping we done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">indexing &amp; slicing in the matrix </t>
+  </si>
+  <si>
+    <t>filter in matrix | order - C, F, A</t>
+  </si>
+  <si>
+    <t>how ai is implement in farming to pluck the fruits</t>
+  </si>
+  <si>
+    <t>projects - requiremt, businesscase, what we need to do</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DA | BA | DE | DS -- what skill set required to do this jobs </t>
+  </si>
+  <si>
+    <t>reqest every one please upload your ppt project code to git | linkedin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">217 functionality - continue work on this. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We are continues on data anlaysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we discussed usecase | problem statement </t>
+  </si>
+  <si>
+    <t>being a DA what is nature of work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we introduced to matplotlib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">line style, plot parameter we discussed </t>
+  </si>
+  <si>
+    <t>we completed data anlaysis project</t>
+  </si>
+  <si>
+    <t>discussed insight, pattern, trends etc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">legend -- automatic color detection </t>
+  </si>
+  <si>
+    <t>ignore the warning, how to increse the graph size by plt.rcparam.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project-ipl data analysis with numpy + matplotlib </t>
+  </si>
+  <si>
+    <t>want you complete this</t>
+  </si>
+  <si>
+    <t>bbox - to - anchor</t>
   </si>
 </sst>
 </file>
@@ -1060,10 +1120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C187"/>
+  <dimension ref="A1:C207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C187" sqref="C187"/>
+    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A208" sqref="A208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -2047,59 +2107,171 @@
         <v>188</v>
       </c>
     </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C177" s="1" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C178" s="1" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C179" s="1" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C180" s="1" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C181" s="1" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C182" s="1" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C183" s="1" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C184" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C185" s="1" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C186" s="1" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C187" s="1" t="s">
         <v>199</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A188" s="4">
+        <v>45119</v>
+      </c>
+      <c r="B188" s="1">
+        <v>15</v>
+      </c>
+      <c r="C188" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C189" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C190" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C191" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C192" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C193" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C194" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C195" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A196" s="4">
+        <v>45120</v>
+      </c>
+      <c r="B196" s="1">
+        <v>16</v>
+      </c>
+      <c r="C196" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C197" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C198" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C199" s="1" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C200" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C201" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C202" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C203" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C204" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C205" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C206" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C207" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BE333E-3A46-4249-9528-8E9F1F79FA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351F093-C7C9-4516-845E-D180AEC709E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
   <sheets>
     <sheet name="FSDS-10AM" sheetId="1" r:id="rId1"/>
     <sheet name="Data structure " sheetId="2" r:id="rId2"/>
+    <sheet name="data cleaning step " sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
   <si>
     <t>No of Day*</t>
   </si>
@@ -693,13 +694,205 @@
   </si>
   <si>
     <t>bbox - to - anchor</t>
+  </si>
+  <si>
+    <t>we discuss about visualization using - azur ml | databrick ( Inbuild visualization)</t>
+  </si>
+  <si>
+    <t>RAW DATA</t>
+  </si>
+  <si>
+    <t>NAME</t>
+  </si>
+  <si>
+    <t>ALEX</t>
+  </si>
+  <si>
+    <t>JOHN</t>
+  </si>
+  <si>
+    <t>SAM</t>
+  </si>
+  <si>
+    <t>age</t>
+  </si>
+  <si>
+    <t>mob</t>
+  </si>
+  <si>
+    <t>addre</t>
+  </si>
+  <si>
+    <t>office</t>
+  </si>
+  <si>
+    <t>sal</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>78k</t>
+  </si>
+  <si>
+    <t>45th stre, btm layout, banga</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2l </t>
+  </si>
+  <si>
+    <t>cloth</t>
+  </si>
+  <si>
+    <t>80k</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>hyder</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>CLEAN DATA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">67 JOHN ST, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ST. JOHNRD. </t>
+  </si>
+  <si>
+    <t>56th a street, btm, bangalore 45009</t>
+  </si>
+  <si>
+    <t>door</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pin </t>
+  </si>
+  <si>
+    <t>56th</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a </t>
+  </si>
+  <si>
+    <t>btm</t>
+  </si>
+  <si>
+    <t>state</t>
+  </si>
+  <si>
+    <t>banga</t>
+  </si>
+  <si>
+    <t>1 variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 5 variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>variable creation concept</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed data cleaning or data cleansing concept </t>
+  </si>
+  <si>
+    <t>raw data - any values are missing in the dataset is called raw data</t>
+  </si>
+  <si>
+    <t>clean data - filled the missing value is cleaned data</t>
+  </si>
+  <si>
+    <t>feature = variable = attribute = columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature engineering concept </t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable creation concept || how to create mutiple variable from 1 to many </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TASK-6 : data cleansing using python split function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we discuss student offer with pkg of 12 lpa | with in 4 mont 8lpa - 12lpa </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to pandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">split address - door | street | city | state | zip </t>
+  </si>
+  <si>
+    <t>split time - hh, mm, ss ////// split data to - dd, mm, yy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discuss different type of extension </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to get the raw data from database </t>
+  </si>
+  <si>
+    <t>convert from raw data - clean data is data cleansing</t>
+  </si>
+  <si>
+    <t>how to read csv file from system desktop to python software using pandas package</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pandas inbuild library when you instal anaconda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">padns. Read_csv || what is raw string  &amp; usage of R infront of path location </t>
+  </si>
+  <si>
+    <t>.shape ( dimension of the dataframe) || dimension - rows*columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">len funct we implent in pandas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.columns - print list of column name from the dataset </t>
+  </si>
+  <si>
+    <t>TASK-7 : Using pandas package please read .CSV|.HTML|.XML|.JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Team please complete all the task &amp; project </t>
+  </si>
+  <si>
+    <t>I will share one python book - 856 page</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -738,8 +931,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -764,8 +972,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -773,11 +987,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -805,6 +1054,32 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1120,17 +1395,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C207"/>
+  <dimension ref="A1:C231"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A208" sqref="A208"/>
+    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C228" sqref="C228"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="55.90625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58.7265625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -2272,6 +2547,132 @@
     <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C207" s="1" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C208" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A209" s="4">
+        <v>45121</v>
+      </c>
+      <c r="B209" s="1">
+        <v>17</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C210" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C211" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C212" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C213" s="1" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C214" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C215" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C216" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C217" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C218" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C219" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C220" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C221" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C222" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C223" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C224" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C225" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C226" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C227" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C228" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C229" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C230" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C231" s="1" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2433,4 +2834,361 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFDBD7-9C9A-4D66-9823-AE4ECBBB99F9}">
+  <dimension ref="A2:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C2" s="10" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="12">
+        <v>1</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C5" s="12">
+        <v>24</v>
+      </c>
+      <c r="D5" s="12">
+        <v>565</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J5" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="12">
+        <v>2</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H6" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I6" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J6" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="12">
+        <v>3</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="12">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C9" s="10" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>231</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="J11" s="11" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C12" s="12">
+        <v>24</v>
+      </c>
+      <c r="D12" s="12">
+        <v>565</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G12" s="12">
+        <v>67</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="J12" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="12">
+        <v>2</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="C13" s="12">
+        <v>35</v>
+      </c>
+      <c r="D13" s="12">
+        <v>789</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="12">
+        <v>3</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C14" s="12">
+        <v>45</v>
+      </c>
+      <c r="D14" s="12">
+        <v>123</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="J14" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="D16" s="21" t="s">
+        <v>260</v>
+      </c>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D17" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>250</v>
+      </c>
+      <c r="G18" s="15" t="s">
+        <v>255</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="D19" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="G19" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="H19" s="15">
+        <v>45009</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.35">
+      <c r="F21" s="18"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D16:H16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr showObjects="none" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A351F093-C7C9-4516-845E-D180AEC709E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFCD18-98BC-44A9-A00E-268484B22717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="318">
   <si>
     <t>No of Day*</t>
   </si>
@@ -886,6 +886,108 @@
   </si>
   <si>
     <t>I will share one python book - 856 page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data analysis using excel sheet vs python </t>
+  </si>
+  <si>
+    <t>excel -- it reads only 1048576 record, data analysis in excel is limited</t>
+  </si>
+  <si>
+    <t>how to read the dataset using pandas</t>
+  </si>
+  <si>
+    <t>.shape - dimension || .info() - information of df</t>
+  </si>
+  <si>
+    <t>.isnull() - to check missing value || .columns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.describe () - descriptive stat( mean, mode, median, sd, quartiles | min | max </t>
+  </si>
+  <si>
+    <t>.dtype || .head | .tail | .transpose</t>
+  </si>
+  <si>
+    <t>how to split the data using pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numerical data vs categorical data </t>
+  </si>
+  <si>
+    <t>technique queston - imputation technique we discuss laters</t>
+  </si>
+  <si>
+    <t>how to  add column &amp; how to drop columns</t>
+  </si>
+  <si>
+    <t>axis - 1 || columns ,, axis-0 || rows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">learner working slides we discussed </t>
+  </si>
+  <si>
+    <t>continue COUNTRY GDP PROJECTS</t>
+  </si>
+  <si>
+    <t>univariate analysis - plot the graph using 1 variable</t>
+  </si>
+  <si>
+    <t>bivariate anlaysi s- plot the graph using 2 variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multivariate analysis - plot the graph using multi variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">heatmap </t>
+  </si>
+  <si>
+    <t xml:space="preserve">distplot | box plot | lm plot </t>
+  </si>
+  <si>
+    <t xml:space="preserve">outlier == anomay detection </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed some places student from existing batch (2 student placed) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">which organization hired data sceientist </t>
+  </si>
+  <si>
+    <t>jd ( barcaly | m b| truecaller| walmart | jio| visa | waymo | shell )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We introduced to seaborn - adavnced visualization </t>
+  </si>
+  <si>
+    <t>project - Country GDP data analysis using Pandas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project- matplotlib visualizaion </t>
+  </si>
+  <si>
+    <t>1&gt; importing data into python</t>
+  </si>
+  <si>
+    <t>2&gt; Dataframe via panda</t>
+  </si>
+  <si>
+    <t>3&gt; exploring datasets: head()tail()info()describe()</t>
+  </si>
+  <si>
+    <t>4&gt; Renaming columns</t>
+  </si>
+  <si>
+    <t>5&gt; subsetting dataframes</t>
+  </si>
+  <si>
+    <t>6&gt; Basic operations with dataframe</t>
+  </si>
+  <si>
+    <t>8&gt; filtering data frames</t>
+  </si>
+  <si>
+    <t>9&gt; seaborn introduction</t>
   </si>
 </sst>
 </file>
@@ -1052,9 +1154,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1077,6 +1176,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1395,10 +1497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C231"/>
+  <dimension ref="A1:C267"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A214" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C228" sqref="C228"/>
+    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B266" sqref="B266"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1410,11 +1512,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2640,39 +2742,234 @@
         <v>276</v>
       </c>
     </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C225" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C226" s="1" t="s">
         <v>278</v>
       </c>
     </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C227" s="1" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C228" s="1" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C229" s="1" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C230" s="1" t="s">
         <v>282</v>
       </c>
     </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C231" s="1" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A232" s="4">
+        <v>45124</v>
+      </c>
+      <c r="B232" s="1">
+        <v>18</v>
+      </c>
+      <c r="C232" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C233" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C234" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C235" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C236" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C237" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C238" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C239" s="1" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C240" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C241" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C242" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C243" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C244" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C245" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A246" s="4">
+        <v>45125</v>
+      </c>
+      <c r="B246" s="1">
+        <v>19</v>
+      </c>
+      <c r="C246" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C247" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C248" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C249" s="1" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C250" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C251" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C252" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C253" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C254" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C255" s="1" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C256" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C257" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C258" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C259" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C260" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C261" s="1" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C262" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C263" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C264" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C265" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C266" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A267" s="4">
+        <v>45126</v>
+      </c>
+      <c r="B267" s="1">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2850,276 +3147,276 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>1</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="11">
         <v>24</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="11">
         <v>565</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="12" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I5" s="12" t="s">
+      <c r="I5" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J5" s="12" t="s">
+      <c r="J5" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>2</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="13"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H6" s="12" t="s">
+      <c r="H6" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="I6" s="12" t="s">
+      <c r="I6" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="J6" s="12" t="s">
+      <c r="J6" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>3</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="11">
         <v>45</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="12" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I7" s="12" t="s">
+      <c r="I7" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="12" t="s">
+      <c r="J7" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
+      <c r="A8" s="15"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="9" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>243</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="H11" s="11" t="s">
+      <c r="H11" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="I11" s="11" t="s">
+      <c r="I11" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="J11" s="11" t="s">
+      <c r="J11" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>1</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="11">
         <v>24</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="11">
         <v>565</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="11">
         <v>67</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I12" s="12" t="s">
+      <c r="I12" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="J12" s="12" t="s">
+      <c r="J12" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <v>2</v>
       </c>
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="11">
         <v>35</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="11">
         <v>789</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>235</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12" t="s">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11" t="s">
         <v>236</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>237</v>
       </c>
-      <c r="I13" s="12" t="s">
+      <c r="I13" s="11" t="s">
         <v>238</v>
       </c>
-      <c r="J13" s="12" t="s">
+      <c r="J13" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <v>3</v>
       </c>
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="11">
         <v>45</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="11">
         <v>123</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>246</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="11" t="s">
         <v>241</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="11" t="s">
         <v>234</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="11" t="s">
         <v>233</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>242</v>
       </c>
-      <c r="J14" s="12" t="s">
+      <c r="J14" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="D16" s="21" t="s">
@@ -3131,58 +3428,58 @@
       <c r="H16" s="21"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D17" s="14" t="s">
+      <c r="D17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15" t="s">
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14" t="s">
         <v>257</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="19" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D18" s="15" t="s">
+      <c r="D18" s="14" t="s">
         <v>248</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="F18" s="15" t="s">
+      <c r="F18" s="14" t="s">
         <v>250</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>255</v>
       </c>
-      <c r="H18" s="15" t="s">
+      <c r="H18" s="14" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="14" t="s">
         <v>253</v>
       </c>
-      <c r="F19" s="15" t="s">
+      <c r="F19" s="14" t="s">
         <v>254</v>
       </c>
-      <c r="G19" s="15" t="s">
+      <c r="G19" s="14" t="s">
         <v>256</v>
       </c>
-      <c r="H19" s="15">
+      <c r="H19" s="14">
         <v>45009</v>
       </c>
-      <c r="I19" s="19" t="s">
+      <c r="I19" s="18" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.35">
-      <c r="F21" s="18"/>
+      <c r="F21" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1CFCD18-98BC-44A9-A00E-268484B22717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FAE57D-3D2C-4486-9891-D1AF2DB6CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -16,6 +16,8 @@
     <sheet name="FSDS-10AM" sheetId="1" r:id="rId1"/>
     <sheet name="Data structure " sheetId="2" r:id="rId2"/>
     <sheet name="data cleaning step " sheetId="3" r:id="rId3"/>
+    <sheet name="EDA" sheetId="4" r:id="rId4"/>
+    <sheet name="missing vlaue treatment " sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="449">
   <si>
     <t>No of Day*</t>
   </si>
@@ -988,13 +990,419 @@
   </si>
   <si>
     <t>9&gt; seaborn introduction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to kaggle.com </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we talked about compitions &amp; try to participate </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMDB movie rating analysis with pandas </t>
+  </si>
+  <si>
+    <t>excel vs python (practiclaay excel cant read 2cr recrods, but pandas does</t>
+  </si>
+  <si>
+    <t>pandas cant read 20cr record, spark does (pyspark -- python + spark)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how use of sep @ read.csv || del | </t>
+  </si>
+  <si>
+    <t>.iloc -- location of the datafram</t>
+  </si>
+  <si>
+    <t>we discussed how the dataset feed to kaggle.com ( by phd researcher)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I assinged task to complete till 44 line </t>
+  </si>
+  <si>
+    <t>Arcitecture to prepare dataset for predictive model</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data acquistion strategy | data ware housing mean </t>
+  </si>
+  <si>
+    <t>nature of work for data analysis | data engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDA explaratory data analysis </t>
+  </si>
+  <si>
+    <t>eda hep us to covert raw data - clean data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda 7 technique process = aka = feature engineering steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable identification | univariate | bivariate | outlier | missing value treatment | variable trasformation | variable creation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable identification = 2 variable </t>
+  </si>
+  <si>
+    <t>discused about family with 2 attribute , generate math ewquat (y = x)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression = d.v is continuous </t>
+  </si>
+  <si>
+    <t xml:space="preserve">classifcation == d.v is binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression algorthm = slr | mlr | poly | svr | dtr | rfr | l1 | l2 | time series </t>
+  </si>
+  <si>
+    <t xml:space="preserve">real time scanation -- forecasting | sale prediction | price prediciton | ticket fare | bit coin | currency| own business prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">classification algorithm = logit | svm | dt | rf| xgboost | knn | nb | adaboost </t>
+  </si>
+  <si>
+    <t>real time scenarion -- happy | sad , +ve or -ve || spam or non spam , w | loos</t>
+  </si>
+  <si>
+    <t>independent variabel = non target variable = non predicted variable = x</t>
+  </si>
+  <si>
+    <t>dependet varaible = predicted variable = target variable = y</t>
+  </si>
+  <si>
+    <t>discused about family with 4 attribute , generate math ewquat (y = x1+x2+x3)</t>
+  </si>
+  <si>
+    <t>HOUSE PRICE</t>
+  </si>
+  <si>
+    <t>AGE</t>
+  </si>
+  <si>
+    <t>LOCATION</t>
+  </si>
+  <si>
+    <t>SFT</t>
+  </si>
+  <si>
+    <t>SHOPING</t>
+  </si>
+  <si>
+    <t>SCOOL</t>
+  </si>
+  <si>
+    <t>METRO</t>
+  </si>
+  <si>
+    <t>PRICES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SKIN </t>
+  </si>
+  <si>
+    <t>HAIR</t>
+  </si>
+  <si>
+    <t>HEIGHT</t>
+  </si>
+  <si>
+    <t>WEIGHT</t>
+  </si>
+  <si>
+    <t>MOB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>DEF</t>
+  </si>
+  <si>
+    <t>GEH</t>
+  </si>
+  <si>
+    <t>PRIME</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>1CR</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>URBAN</t>
+  </si>
+  <si>
+    <t>2CR</t>
+  </si>
+  <si>
+    <t>3CR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13 ATTRIBUTES </t>
+  </si>
+  <si>
+    <t>X1</t>
+  </si>
+  <si>
+    <t>X2</t>
+  </si>
+  <si>
+    <t>X3</t>
+  </si>
+  <si>
+    <t>X4</t>
+  </si>
+  <si>
+    <t>X5</t>
+  </si>
+  <si>
+    <t>X6</t>
+  </si>
+  <si>
+    <t>X7</t>
+  </si>
+  <si>
+    <t>X8</t>
+  </si>
+  <si>
+    <t>X9</t>
+  </si>
+  <si>
+    <t>X10</t>
+  </si>
+  <si>
+    <t>X11</t>
+  </si>
+  <si>
+    <t>X12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">REGRESSIO -- IF D.V IS CONTINUOUSE ( PRICE - 1cr, 2cr, 3cr, 4cr, </t>
+  </si>
+  <si>
+    <t>slr</t>
+  </si>
+  <si>
+    <t>mlr</t>
+  </si>
+  <si>
+    <t>svr</t>
+  </si>
+  <si>
+    <t>dtr</t>
+  </si>
+  <si>
+    <t>rfr</t>
+  </si>
+  <si>
+    <t>ann re</t>
+  </si>
+  <si>
+    <t>13 attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relavant atribute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">irrelavant attribute </t>
+  </si>
+  <si>
+    <t>skin, hair, height , weigt gender</t>
+  </si>
+  <si>
+    <t>x8</t>
+  </si>
+  <si>
+    <t>purchase</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Y1</t>
+  </si>
+  <si>
+    <t>Y2</t>
+  </si>
+  <si>
+    <t>Regression algorith</t>
+  </si>
+  <si>
+    <t>future house pricing</t>
+  </si>
+  <si>
+    <t>classification algorith</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p / l </t>
+  </si>
+  <si>
+    <t xml:space="preserve">reviewed about variable identification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed house price examply to figure out how to choose right dependendt variable </t>
+  </si>
+  <si>
+    <t>identify dv is very very important before you become datasceince</t>
+  </si>
+  <si>
+    <t xml:space="preserve">relavant attribute | irrelavant attribtue </t>
+  </si>
+  <si>
+    <t xml:space="preserve">build the model using irrelavant attribute -- overfitting | multicollinearity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if multicolenierity problem occure then we get high error less accuracy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if we get less accuray website ( dog ) - horse </t>
+  </si>
+  <si>
+    <t>dv is very important -- regression algorithm or classificaiton algorithm</t>
+  </si>
+  <si>
+    <t>busines understanding is very import | KT ( KNOWLEDGE TRANSFER) BUSINESS KNOWLEDGE)</t>
+  </si>
+  <si>
+    <t>business knowledge comes from database</t>
+  </si>
+  <si>
+    <t>univariate | bivariate | mulitivariate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">binvare - corelation </t>
+  </si>
+  <si>
+    <t>range of corelation (-1 to 1)</t>
+  </si>
+  <si>
+    <t>+ve corelation 0-1) || -ve corelation (-1 -0) || no coreation (0)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if we have 2 d.v then based on business required you need to build the model </t>
+  </si>
+  <si>
+    <t>outlier treatement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">choose right attribute is important || </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FEATURE SELECTION TECHNIQUE</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">FEATURE ENGINERING TECHNIQIE -- EDA TECHNIQUE </t>
+  </si>
+  <si>
+    <t>A-numerica</t>
+  </si>
+  <si>
+    <t>SUMMER</t>
+  </si>
+  <si>
+    <t>WINTER</t>
+  </si>
+  <si>
+    <t>RAINY</t>
+  </si>
+  <si>
+    <t>temp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">winter </t>
+  </si>
+  <si>
+    <t xml:space="preserve">RAINY </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DUMMY VARIABLE | ONE HOT ENCODER </t>
+  </si>
+  <si>
+    <t xml:space="preserve">attribute are binary </t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>+VE RE</t>
+  </si>
+  <si>
+    <t>-VE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Missing value treatement </t>
+  </si>
+  <si>
+    <t>numerical values are missing - mean | median | modes strategy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">categorical values are missing --&gt; mode | knn strategy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">valriation createion &amp; transformation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to convert categorical to numerical we are implmenting </t>
+  </si>
+  <si>
+    <t>dummy variable | one hot encoder -- coverr S|W|R --&gt; 1|0|0</t>
+  </si>
+  <si>
+    <t>lable encoder -- M| F -- convert to 1 | 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">raw data sample dataset </t>
+  </si>
+  <si>
+    <t>using python package - np|pd|plt|sns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">clean raw data -- removed regular expression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">str.replace() || stt. Extract() || \w &amp; |d+ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practically we implement eda technqieu </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed about new library </t>
+  </si>
+  <si>
+    <t>pivot | pytube | git-story | bashplotlib | mito | black | manim</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,6 +1452,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1128,7 +1544,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1177,6 +1593,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1497,26 +1934,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C267"/>
+  <dimension ref="A1:C325"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A257" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B266" sqref="B266"/>
+    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C320" sqref="C320"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="58.7265625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="73.36328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
+      <c r="A1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -2970,6 +3407,317 @@
       </c>
       <c r="B267" s="1">
         <v>20</v>
+      </c>
+      <c r="C267" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C268" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C269" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C270" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C271" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C272" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C273" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C274" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C275" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A276" s="4">
+        <v>45127</v>
+      </c>
+      <c r="B276" s="1">
+        <v>21</v>
+      </c>
+      <c r="C276" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C277" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C278" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C279" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C280" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C281" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C282" s="5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C283" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C284" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C285" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C286" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="11.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C287" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C288" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C289" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C290" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C291" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C292" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C293" s="5" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A294" s="4">
+        <v>45128</v>
+      </c>
+      <c r="B294" s="1">
+        <v>22</v>
+      </c>
+      <c r="C294" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C295" s="1" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C296" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C297" s="1" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C298" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C299" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C300" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C301" s="1" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C302" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C303" s="1" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C304" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C305" s="1" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C306" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C307" s="6" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C308" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C309" s="1" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C310" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C311" s="23" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A312" s="4">
+        <v>45131</v>
+      </c>
+      <c r="B312" s="1">
+        <v>23</v>
+      </c>
+      <c r="C312" s="1" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C313" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C314" s="1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C315" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C316" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C317" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C318" s="1" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C319" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C320" s="1" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C321" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C322" s="1" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C323" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C324" s="1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C325" s="1" t="s">
+        <v>448</v>
       </c>
     </row>
   </sheetData>
@@ -2985,8 +3733,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BF59ADD-7C61-4F12-BB89-7013C9EB8F44}">
   <dimension ref="B2:H14"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3137,7 +3885,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2CFDBD7-9C9A-4D66-9823-AE4ECBBB99F9}">
   <dimension ref="A2:J21"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
@@ -3419,13 +4167,13 @@
       <c r="J15" s="15"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="D16" s="21" t="s">
+      <c r="D16" s="30" t="s">
         <v>260</v>
       </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="21"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.35">
       <c r="D17" s="13" t="s">
@@ -3488,4 +4236,762 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8083A6C6-DF0C-4250-AA57-58CE99C206FB}">
+  <dimension ref="B2:O25"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="3" width="8.7265625" style="8"/>
+    <col min="4" max="4" width="12.08984375" style="8" customWidth="1"/>
+    <col min="5" max="8" width="8.7265625" style="8"/>
+    <col min="9" max="9" width="8.7265625" style="8" customWidth="1"/>
+    <col min="10" max="16384" width="8.7265625" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="D2" s="20" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B3" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F3" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H3" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I3" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="J3" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="L3" s="22" t="s">
+        <v>380</v>
+      </c>
+      <c r="M3" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="O3" s="22" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B4" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C5" s="11">
+        <v>23</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E5" s="11">
+        <v>100</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="K5" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="L5" s="11">
+        <v>5.9</v>
+      </c>
+      <c r="M5" s="11">
+        <v>75</v>
+      </c>
+      <c r="N5" s="11">
+        <v>4567</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C6" s="11">
+        <v>34</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="11">
+        <v>200</v>
+      </c>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="11">
+        <v>897</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B7" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E7" s="11">
+        <v>300</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J7" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="11">
+        <v>786</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L9" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="L10" s="8" t="s">
+        <v>402</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B12" s="22" t="s">
+        <v>371</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>373</v>
+      </c>
+      <c r="E12" s="22" t="s">
+        <v>374</v>
+      </c>
+      <c r="F12" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="22" t="s">
+        <v>376</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>377</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B13" s="10" t="s">
+        <v>222</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>351</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>352</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B14" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="11">
+        <v>23</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E14" s="11">
+        <v>100</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="J14" s="11">
+        <v>4567</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B15" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="11">
+        <v>34</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="E15" s="11">
+        <v>200</v>
+      </c>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="J15" s="11">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.35">
+      <c r="B16" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="21"/>
+      <c r="D16" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E16" s="11">
+        <v>300</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H16" s="21"/>
+      <c r="I16" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="J16" s="11">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="B20" s="8" t="s">
+        <v>370</v>
+      </c>
+      <c r="G20" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="J20" s="8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G21" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="J21" s="8" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="C22" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="G22" s="8" t="s">
+        <v>386</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G23" s="8" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G24" s="8" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.35">
+      <c r="G25" s="8" t="s">
+        <v>389</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80D23922-751B-456F-838E-8C4119DF4D59}">
+  <dimension ref="C3:M22"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="3" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="G3" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="4" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C4" s="24" t="s">
+        <v>422</v>
+      </c>
+      <c r="E4" s="26" t="s">
+        <v>426</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="G4" s="27" t="s">
+        <v>423</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="5" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C5" s="8">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8">
+        <v>56</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C6" s="8">
+        <v>25</v>
+      </c>
+      <c r="E6" s="8">
+        <v>10</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
+      </c>
+      <c r="I6" s="8">
+        <v>0</v>
+      </c>
+      <c r="K6" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C7" s="24">
+        <v>34</v>
+      </c>
+      <c r="E7" s="8">
+        <v>13</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="8">
+        <v>1</v>
+      </c>
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C8" s="8">
+        <v>35</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1</v>
+      </c>
+      <c r="I8" s="8">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C9" s="8">
+        <v>45</v>
+      </c>
+      <c r="E9" s="8">
+        <v>20</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>1</v>
+      </c>
+      <c r="K9" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C10" s="24">
+        <v>34</v>
+      </c>
+      <c r="E10" s="8">
+        <v>23</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0</v>
+      </c>
+      <c r="I10" s="8">
+        <v>1</v>
+      </c>
+      <c r="K10" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C11" s="8">
+        <v>50</v>
+      </c>
+      <c r="E11" s="8">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>424</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11" s="8">
+        <v>1</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C12" s="25">
+        <v>34</v>
+      </c>
+      <c r="E12" s="8">
+        <v>40</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12" s="8">
+        <v>0</v>
+      </c>
+      <c r="I12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="C13" s="8">
+        <v>60</v>
+      </c>
+      <c r="E13" s="8">
+        <v>50</v>
+      </c>
+      <c r="F13" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="8">
+        <v>0</v>
+      </c>
+      <c r="I13" s="8">
+        <v>0</v>
+      </c>
+      <c r="K13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="E14" s="8">
+        <v>43</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>423</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14" s="8">
+        <v>0</v>
+      </c>
+      <c r="I14" s="8">
+        <v>0</v>
+      </c>
+      <c r="K14" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" x14ac:dyDescent="0.35">
+      <c r="L16" s="28" t="s">
+        <v>433</v>
+      </c>
+      <c r="M16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="H17" t="s">
+        <v>430</v>
+      </c>
+      <c r="J17" t="s">
+        <v>151</v>
+      </c>
+      <c r="K17" s="8">
+        <v>1</v>
+      </c>
+      <c r="L17" s="28" t="s">
+        <v>434</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="J18" t="s">
+        <v>240</v>
+      </c>
+      <c r="K18" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="J19" t="s">
+        <v>396</v>
+      </c>
+      <c r="K19" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="J20" t="s">
+        <v>397</v>
+      </c>
+      <c r="K20" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="J21" t="s">
+        <v>432</v>
+      </c>
+      <c r="K21" s="8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="8:13" x14ac:dyDescent="0.35">
+      <c r="J22" t="s">
+        <v>431</v>
+      </c>
+      <c r="K22" s="8">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4FAE57D-3D2C-4486-9891-D1AF2DB6CAFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB683F-D031-4554-A882-6100D9B0F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="502">
   <si>
     <t>No of Day*</t>
   </si>
@@ -1396,6 +1396,165 @@
   </si>
   <si>
     <t>pivot | pytube | git-story | bashplotlib | mito | black | manim</t>
+  </si>
+  <si>
+    <t>new dataset project - movie rating anlaysis using pandas &amp; seaborn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.astype to convert data type to other </t>
+  </si>
+  <si>
+    <t>discussed what is the problem statement , use case of the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">being a dataanalyst what we need to do . What is the goal &amp; we are working on suggestion </t>
+  </si>
+  <si>
+    <t>distplot | histogram</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">normal distribution | binomial || bell curve | 0 skewness | 0 syeemter | gausiaan </t>
+  </si>
+  <si>
+    <t>nomal distribution | mean = medain = mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to imputer hue in the graph </t>
+  </si>
+  <si>
+    <t>jointplot || kine - reg, scatter, kde, hex,resid</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Final discussion what we learn so far - </t>
+  </si>
+  <si>
+    <t>1&gt; category datatype in python</t>
+  </si>
+  <si>
+    <t>2&gt; jointplots</t>
+  </si>
+  <si>
+    <t>3&gt; histogram</t>
+  </si>
+  <si>
+    <t>4&gt; stacked histograms</t>
+  </si>
+  <si>
+    <t>5&gt; Kde plot</t>
+  </si>
+  <si>
+    <t>6&gt; subplot</t>
+  </si>
+  <si>
+    <t>7&gt; violin plots</t>
+  </si>
+  <si>
+    <t>8&gt; Factet grid</t>
+  </si>
+  <si>
+    <t>9&gt; Building dashboards</t>
+  </si>
+  <si>
+    <t>IRIS FLOWER - SEPAL LENGTH|SEPAL WIDTH | PETAL LENTH | PETEAL WIDTH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEPAL &gt; PETAL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PROJECT TO COMPLETE IRIS DATA ANALYSIS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed resume project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bank loan default risk anlaysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed interview based question. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to analysis , how to explore the dataset </t>
+  </si>
+  <si>
+    <t xml:space="preserve">I shared  kaggle link to practise, this is resume project </t>
+  </si>
+  <si>
+    <t>everyone to need to complete the project to have good exposure on data anlaytics skillls</t>
+  </si>
+  <si>
+    <t>how to find out which attribute are highly corelate with dv ==&gt;</t>
+  </si>
+  <si>
+    <t>correlation = df.corr()</t>
+  </si>
+  <si>
+    <t>correlation['target'].sort_values(ascending=False)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">eda project -- heart diseas analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seaborn  project- fifa dataset analysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">business anlaysis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">even though business domains are difference methods are same algorithms are constant </t>
+  </si>
+  <si>
+    <t xml:space="preserve">business analys or data analyst or data scient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1st imp point understanding attribute or column name or feature </t>
+  </si>
+  <si>
+    <t>2nd most imp point is understand business well &amp; dependent variabe</t>
+  </si>
+  <si>
+    <t>3rd point is based on dependent variable we select perfect algorithm</t>
+  </si>
+  <si>
+    <t>how to choose right machine learning algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">starting introduced about db &amp; skewness we will talk later </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sql introducetion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">server - collection of db </t>
+  </si>
+  <si>
+    <t>db - collection of schma</t>
+  </si>
+  <si>
+    <t>schema - collection of tables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tables - collection of data types </t>
+  </si>
+  <si>
+    <t xml:space="preserve">datatype - int | char | varchar | logical </t>
+  </si>
+  <si>
+    <t xml:space="preserve">export raw data from the database using sql querying </t>
+  </si>
+  <si>
+    <t>steps to export data from db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">team please please work on the project data extraction using sq &amp; python </t>
+  </si>
+  <si>
+    <t xml:space="preserve">prepare ppt for data extraction steps </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discused about website reference --&gt; w3school python &amp; w3school in sql </t>
   </si>
 </sst>
 </file>
@@ -1934,10 +2093,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C325"/>
+  <dimension ref="A1:C378"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A310" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C320" sqref="C320"/>
+    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -3695,29 +3854,324 @@
         <v>443</v>
       </c>
     </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C321" s="1" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C322" s="1" t="s">
         <v>445</v>
       </c>
     </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C323" s="1" t="s">
         <v>446</v>
       </c>
     </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C324" s="1" t="s">
         <v>447</v>
       </c>
     </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C325" s="1" t="s">
         <v>448</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A326" s="4">
+        <v>45132</v>
+      </c>
+      <c r="B326" s="1">
+        <v>24</v>
+      </c>
+      <c r="C326" s="1" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C327" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C328" s="1" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C329" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C330" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C331" s="1" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C332" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C333" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C334" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C335" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A336" s="4">
+        <v>45133</v>
+      </c>
+      <c r="B336" s="1">
+        <v>25</v>
+      </c>
+      <c r="C336" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C337" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C338" s="1" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C339" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C340" s="1" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C341" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C342" s="1" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C343" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C344" s="1" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C345" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C346" s="1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C347" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C348" s="1" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A349" s="4">
+        <v>45134</v>
+      </c>
+      <c r="B349" s="1">
+        <v>26</v>
+      </c>
+      <c r="C349" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C350" s="1" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C351" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C352" s="1" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C353" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C354" s="1" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A355" s="4">
+        <v>45135</v>
+      </c>
+      <c r="B355" s="1">
+        <v>27</v>
+      </c>
+      <c r="C355" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C356" s="1" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C357" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C358" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C359" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C360" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C361" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C362" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C363" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C364" s="1" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C365" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C366" s="1" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C367" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A368" s="4">
+        <v>45136</v>
+      </c>
+      <c r="B368" s="1">
+        <v>28</v>
+      </c>
+      <c r="C368" s="1" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C369" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C370" s="1" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C371" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C372" s="1" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C373" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C374" s="1" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C375" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C376" s="1" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C377" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C378" s="1" t="s">
+        <v>501</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6FB683F-D031-4554-A882-6100D9B0F166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85036CB-2DE4-408B-AB80-F3BBD8BAAAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="615">
   <si>
     <t>No of Day*</t>
   </si>
@@ -1555,6 +1555,345 @@
   </si>
   <si>
     <t xml:space="preserve">discused about website reference --&gt; w3school python &amp; w3school in sql </t>
+  </si>
+  <si>
+    <t xml:space="preserve">data cleaning using sql &amp; Python - review the session </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introuction to statstics </t>
+  </si>
+  <si>
+    <t>1- POPULATION &amp; SAMPLE -- Done</t>
+  </si>
+  <si>
+    <t>2- TYPE OF DATA -- Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- DESCRIPTIVE STATS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- INFERENTAIL STATS </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- ADVANCED STATISTIC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- STATISTIC INTERVIEW QUESITON (170) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">business anlaysis vs data anlaysis ( indepth explanation) | project </t>
+  </si>
+  <si>
+    <t>population - parameter - population formula</t>
+  </si>
+  <si>
+    <t>sample - stats - stats formula</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type of data - categorical &amp; Numerical </t>
+  </si>
+  <si>
+    <t>numarical - discrete &amp; continuous</t>
+  </si>
+  <si>
+    <t>discreate - sat score || continous</t>
+  </si>
+  <si>
+    <t>level of data measurment -- quality &amp; quantiry</t>
+  </si>
+  <si>
+    <t>quality - nominal ( not ordered format) | ordinal - (ordered format)</t>
+  </si>
+  <si>
+    <t>quantitye- interval- no zero | ratio (we have 0 value)</t>
+  </si>
+  <si>
+    <t>discuss what is frequency, bar chart, pie chart</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we created frequency distribution table. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">descriptive stats we completed </t>
+  </si>
+  <si>
+    <t>measure of central tendency</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure of variability </t>
+  </si>
+  <si>
+    <t>measure of assyetry or symeetry</t>
+  </si>
+  <si>
+    <t xml:space="preserve">measure of relationship </t>
+  </si>
+  <si>
+    <t>central tendency - mean, median, mode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assymetry | symeetry -- </t>
+  </si>
+  <si>
+    <t>+Ve skew = mean&gt; median &amp; Mode || data is left &amp; outlier is at right</t>
+  </si>
+  <si>
+    <t>0 skew -- mean = median = mode || no outlier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-ve skew = mode &gt; mean &amp; median | data is at right outlier is at left </t>
+  </si>
+  <si>
+    <t>+ve kurtoise = leptokurtic (&gt;3)</t>
+  </si>
+  <si>
+    <t>-ve kurouse = platykurtice (&lt;3)</t>
+  </si>
+  <si>
+    <t>normal distribution = meso kurtic (=3)</t>
+  </si>
+  <si>
+    <t>variance = spread of the data around the mean</t>
+  </si>
+  <si>
+    <t>population mean -- meu | sample mean = Xbar</t>
+  </si>
+  <si>
+    <t>population variance - sigma square | sample variance = s2</t>
+  </si>
+  <si>
+    <t>poputlation sd - root of sigma square | sample sd - root of s2</t>
+  </si>
+  <si>
+    <t>coefficient of variaation - sd / mean ( to compare the value between 2 attribute)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">startisic interivew quesiton </t>
+  </si>
+  <si>
+    <t>discuss some of placement</t>
+  </si>
+  <si>
+    <t>stats.api we are always use in machine learning model building</t>
+  </si>
+  <si>
+    <t>covariance - statistica term of corelation is called covariance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ve covariance, -ve covariace, no covariance </t>
+  </si>
+  <si>
+    <t xml:space="preserve">descriptive stats practice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are completed descriptive stats </t>
+  </si>
+  <si>
+    <t>introduce to inferential statistics</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probabiliyt - toss a coin || roll a dice </t>
+  </si>
+  <si>
+    <t>when roll 1 dice - uniform distribution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roll 2 dice - binomial distribution | gaunision dist | normal distribution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">standardization - convert normal distribution to mean 0 &amp; sd - 1 this is called standarized variable </t>
+  </si>
+  <si>
+    <t>standaridzation = standarized variable - z-score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">z-score formula we connect to time series white noise </t>
+  </si>
+  <si>
+    <t>z-score formula we can connet to machine learing feature scaling tehcnique (standardiztaion)</t>
+  </si>
+  <si>
+    <t>standard errow = sigma /root n</t>
+  </si>
+  <si>
+    <t>confidence level = 1- alpha</t>
+  </si>
+  <si>
+    <t>95% confident then alpha - 5</t>
+  </si>
+  <si>
+    <t>estimator &amp; estimatees</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> estimates is mean of 2 estrimatior </t>
+  </si>
+  <si>
+    <t>please work on the family house income &amp; expanses project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T- table | t- test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to compute confidence interval at the level of 95% &amp; 99% </t>
+  </si>
+  <si>
+    <t>we also completed with inferential statsi</t>
+  </si>
+  <si>
+    <t>descriptive stats &amp; inferential stat is completed</t>
+  </si>
+  <si>
+    <t>dataset size you worked in your project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hypothesis testing - idea need to tested </t>
+  </si>
+  <si>
+    <t>H0 - NULL HYPOTHESIS | H1 or Ha - alternatvie hypothesis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H0:M0 --&gt; accept the null hypothesis </t>
+  </si>
+  <si>
+    <t>H1 :M0 != valus ( reject the null hypothesis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance measure of regression - R2 &amp; adjusted R2, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Performance measure of classification - confusion matrix </t>
+  </si>
+  <si>
+    <t>confusion matrix ( tp | tn | fp | fn )</t>
+  </si>
+  <si>
+    <t>type 1 error - reject the true null hypothesis ( false +Ve)</t>
+  </si>
+  <si>
+    <t>type 2 error = accept false null hypothesis (false -ve)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cental limit theorem - sample &gt; observation </t>
+  </si>
+  <si>
+    <t>Significance value &lt; p-value (0.05)  reject the null hypother || eliminate the irrelavant attribute</t>
+  </si>
+  <si>
+    <t>Significance value &gt; p-value (0.01)  accept the null hypother || not eliminate the irrelavant attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ols | error | residual | loss | cost function </t>
+  </si>
+  <si>
+    <t>y = mx + c  || y^ = mx _+c</t>
+  </si>
+  <si>
+    <t xml:space="preserve">actual value - predicted value == loss | cost| residual | ols </t>
+  </si>
+  <si>
+    <t>ANOVA (Analayis of variance)</t>
+  </si>
+  <si>
+    <t>SST | SSR | SSE ( SST == SSR + SSE )</t>
+  </si>
+  <si>
+    <t>R2 = SSR/SST (range 0-1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adjusted R2 (0-1) </t>
+  </si>
+  <si>
+    <t>best model -- R2 &gt; Adjusted R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression table | we build this table after generate regression model </t>
+  </si>
+  <si>
+    <t>understand the regression table we also discussedd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intro to machine learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">trainsing phase - we train the historical records </t>
+  </si>
+  <si>
+    <t xml:space="preserve">testing phase - test the generate model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">X- x- train &amp; x-test </t>
+  </si>
+  <si>
+    <t>y -- ytrain &amp; y-test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train the model --&gt; x-train + y-train === (M1) GENERATE BASED on historical data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">test weather m1 is accuract or not </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we pass x-test recrod to M1 </t>
+  </si>
+  <si>
+    <t>M1 predicted som resule --- y-pred (prediction table)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y-test vs y-pred (generate accuracy) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we build the model on historical data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">model predict the future tomorrow data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine leanring introduction </t>
+  </si>
+  <si>
+    <t>intoduce to spyder | how to change look of spyder</t>
+  </si>
+  <si>
+    <t>data preprocessing</t>
+  </si>
+  <si>
+    <t>business understanding | data understanding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to import the data in spyder </t>
+  </si>
+  <si>
+    <t>introduction to sklearn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">split the data using .iloc function &amp; split the data to X &amp; y </t>
+  </si>
+  <si>
+    <t>numerica missing value treatement - numerical transfoler (simpleimputuer)</t>
+  </si>
+  <si>
+    <t>simpleimputer (paramet - mean strategy ) | hyper (median &amp; Most_frequent)</t>
+  </si>
+  <si>
+    <t>categorical impution or categorical transformer --- label_encoder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from sklearn. Preprocessing import label_encoder </t>
+  </si>
+  <si>
+    <t xml:space="preserve">train_test_split </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practically x_train, x_test, y_train, y_test </t>
+  </si>
+  <si>
+    <t xml:space="preserve">split ratio ( 80% train 20% testing) </t>
+  </si>
+  <si>
+    <t>70 - 30 || 75 - 25 | 85-15</t>
+  </si>
+  <si>
+    <t>introduce to sklearn github &amp; documentation</t>
   </si>
 </sst>
 </file>
@@ -2093,17 +2432,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C378"/>
+  <dimension ref="A1:C492"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A362" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C369" sqref="C369"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A492" sqref="A492"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="73.36328125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="67.81640625" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -4124,54 +4463,666 @@
         <v>491</v>
       </c>
     </row>
-    <row r="369" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C369" s="1" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="370" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C370" s="1" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="371" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C371" s="1" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="372" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C372" s="1" t="s">
         <v>495</v>
       </c>
     </row>
-    <row r="373" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C373" s="1" t="s">
         <v>496</v>
       </c>
     </row>
-    <row r="374" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C374" s="1" t="s">
         <v>497</v>
       </c>
     </row>
-    <row r="375" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C375" s="1" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="376" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C376" s="1" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="377" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C377" s="1" t="s">
         <v>500</v>
       </c>
     </row>
-    <row r="378" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C378" s="1" t="s">
         <v>501</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A379" s="4">
+        <v>45139</v>
+      </c>
+      <c r="B379" s="1">
+        <v>29</v>
+      </c>
+      <c r="C379" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C380" s="1" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C381" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C382" s="1" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C383" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C384" s="1" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C385" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C386" s="1" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C387" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C388" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C389" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C390" s="1" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C391" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C392" s="1" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C393" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C394" s="1" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C395" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C396" s="1" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C397" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A398" s="4">
+        <v>45140</v>
+      </c>
+      <c r="B398" s="1">
+        <v>30</v>
+      </c>
+      <c r="C398" s="1" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C399" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C400" s="1" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="401" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C401" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="402" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C402" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="403" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C403" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="404" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C404" s="1" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="405" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C405" s="6" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="406" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C406" s="6" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="407" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C407" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="408" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C408" s="6" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="409" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C409" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="410" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C410" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="411" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C411" s="1" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="412" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C412" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="413" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C413" s="1" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="414" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C414" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="415" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C415" s="1" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="416" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C416" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C417" s="1" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C418" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C419" s="1" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C420" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C421" s="6" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A422" s="4">
+        <v>45141</v>
+      </c>
+      <c r="B422" s="1">
+        <v>31</v>
+      </c>
+      <c r="C422" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C423" s="1" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C424" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C425" s="1" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C426" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C427" s="1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C428" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C429" s="1" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C430" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C431" s="1" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C432" s="1" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C433" s="1" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C434" s="1" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C435" s="1" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C436" s="1" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C437" s="1" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A438" s="4">
+        <v>45142</v>
+      </c>
+      <c r="B438" s="1">
+        <v>32</v>
+      </c>
+      <c r="C438" s="1" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C439" s="1" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C440" s="1" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C441" s="1" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C442" s="1" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A443" s="4">
+        <v>45145</v>
+      </c>
+      <c r="B443" s="1">
+        <v>33</v>
+      </c>
+      <c r="C443" s="1" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C444" s="1" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C445" s="1" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C446" s="1" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C447" s="1" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C448" s="1" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C449" s="1" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C450" s="1" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C451" s="1" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C452" s="1" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C453" s="1" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C454" s="1" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C455" s="1" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C456" s="1" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C457" s="1" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A458" s="4">
+        <v>45146</v>
+      </c>
+      <c r="B458" s="1">
+        <v>34</v>
+      </c>
+      <c r="C458" s="1" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C459" s="1" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C460" s="1" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C461" s="1" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C462" s="1" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C463" s="1" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C464" s="1" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C465" s="1" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C466" s="1" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C467" s="1" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C468" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C469" s="1" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C470" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C471" s="1" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C472" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C473" s="1" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C474" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C475" s="1" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C476" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A477" s="4">
+        <v>45147</v>
+      </c>
+      <c r="B477" s="1">
+        <v>35</v>
+      </c>
+      <c r="C477" s="1" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C478" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C479" s="1" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C480" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C481" s="1" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C482" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C483" s="1" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C484" s="1" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C485" s="1" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C486" s="1" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C487" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C488" s="1" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C489" s="1" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C490" s="1" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C491" s="1" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C492" s="1" t="s">
+        <v>614</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A85036CB-2DE4-408B-AB80-F3BBD8BAAAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520081A0-8ACC-4D78-A636-7C4206B5DF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="724" uniqueCount="615">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="687">
   <si>
     <t>No of Day*</t>
   </si>
@@ -1894,6 +1894,222 @@
   </si>
   <si>
     <t>introduce to sklearn github &amp; documentation</t>
+  </si>
+  <si>
+    <t>Random_state = 0 the use of random state</t>
+  </si>
+  <si>
+    <t>to build the optimized or constan model we must need to add the paramaeter as random_state at the time of train_test_split</t>
+  </si>
+  <si>
+    <t>practice part what happened if we removed reandom state. Every run records varies for each run</t>
+  </si>
+  <si>
+    <t>student placed offer we discussed as well</t>
+  </si>
+  <si>
+    <t>overfitting - train the model with more attribute</t>
+  </si>
+  <si>
+    <t>underfitting - trian the model with less attribute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to reducce overfittign techniqe -- PCA || Busines sunderstanding | regularizaiton | cv | dropout | ensaamble  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">overfitting &amp; Underfitting will tend to less accuracy and high error </t>
+  </si>
+  <si>
+    <t>pca ( principal componenet anlaysis ) aka dimension reduction technique (HD - LD)</t>
+  </si>
+  <si>
+    <t>How to create mulitple view those views are -- pc1, pc2, pc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">math behind pca </t>
+  </si>
+  <si>
+    <t>mathmateical we compute how find to calculate covariance matrix, eigen value &amp; eigen vector</t>
+  </si>
+  <si>
+    <t>project on titanic movie analysis</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression -- lineare  &amp; non linear </t>
+  </si>
+  <si>
+    <t>LINEAR REGRESSION  --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- simple linear regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- multiple linear regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- gradient descend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- lasso regression | lasso regularization | l1 regression | l1 regularization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- ridge regression | ridge regularization | l2 regression | l2 regualarization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NON - LINEAR REGRESSION </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- poloynomial regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- support vector regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8- decission tree regresssion </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9- random forest regressoin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- k-nearest neighbour regressor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11- time series </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12- ann regressor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">math imputation for simple linear regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to computer slope &amp; intercept to calculate future prediciton or future forecast </t>
+  </si>
+  <si>
+    <t>discuss practice &amp; what is the code to find coeffience &amp; intercept to predict the future records</t>
+  </si>
+  <si>
+    <t>how to plot the best fit line using slr</t>
+  </si>
+  <si>
+    <t>sklearn.linearmodel import simplelinearregression</t>
+  </si>
+  <si>
+    <t xml:space="preserve">house price prediciton using slr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we do consider slr even though we have multiple independent variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">bias - training &amp; variance - testing </t>
+  </si>
+  <si>
+    <t>high bias low variance - underfitting</t>
+  </si>
+  <si>
+    <t>low bias high variance - overifitting</t>
+  </si>
+  <si>
+    <t>low bias low variance - bestfit || bias variance tradeoff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) SweetViz || </t>
+  </si>
+  <si>
+    <t>2) Pandas-profiling</t>
+  </si>
+  <si>
+    <t>3) DataPrep</t>
+  </si>
+  <si>
+    <t>4) AutoViz</t>
+  </si>
+  <si>
+    <t>5) D-Tale</t>
+  </si>
+  <si>
+    <t>6) dabl</t>
+  </si>
+  <si>
+    <t>7) QuickDA</t>
+  </si>
+  <si>
+    <t>8) Lux</t>
+  </si>
+  <si>
+    <t>Automated EDA tools -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed about business problem &amp; Problem statemet </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit mlr equation to the dataset </t>
+  </si>
+  <si>
+    <t>build the model using mlr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to stats.api </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from stats.formulas as sm || stats.tsa as ts </t>
+  </si>
+  <si>
+    <t>tsa (time series anlaysis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to create get regression summary table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">house price prediction using mlr </t>
+  </si>
+  <si>
+    <t>rfe (recursive feature elimination)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">use model generated constant for the practice (don’t use 1) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">backward elimination ( SL &gt; 0.05) </t>
+  </si>
+  <si>
+    <t>forward elmimation ( SL  &lt; 0.05)</t>
+  </si>
+  <si>
+    <t>gd -- individual data point reach  single datapoint ( reduce the loss increate the accuracy) || lr = 0.01</t>
+  </si>
+  <si>
+    <t>sgd -- pick the random data &amp; make cluster reach globa minima  ( reduce the loss increate the accuracy)</t>
+  </si>
+  <si>
+    <t>bgd -- split the data into batches reach the global minima( reduce the loss increate the accuracy) kr =0.01</t>
+  </si>
+  <si>
+    <t>gd vs sgd vs bgd -- clear</t>
+  </si>
+  <si>
+    <t>learning rate should always very very minimum or else we miss to reach global minima</t>
+  </si>
+  <si>
+    <t>learning rate - update the cost function from 1 cost to another by reducing loss</t>
+  </si>
+  <si>
+    <t>mse - mean square error ( cost function</t>
+  </si>
+  <si>
+    <t xml:space="preserve">big data gradient desend is slow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">math behing the global minima </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gd is the optimizer which very import to use in neural network or dl model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">new librarires - LAZYPREDICTREGRESSOR &amp; LAZYPREDICT CLASSIFICAITON </t>
+  </si>
+  <si>
+    <t>real time when ever you have lr those model run time is very high</t>
   </si>
 </sst>
 </file>
@@ -2432,17 +2648,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C492"/>
+  <dimension ref="A1:C565"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A492" sqref="A492"/>
+    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C564" sqref="C564"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="67.81640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.54296875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -5065,64 +5281,456 @@
         <v>602</v>
       </c>
     </row>
-    <row r="481" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C481" s="1" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="482" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C482" s="1" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="483" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C483" s="1" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="484" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C484" s="1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="485" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C485" s="1" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="486" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C486" s="1" t="s">
         <v>608</v>
       </c>
     </row>
-    <row r="487" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C487" s="1" t="s">
         <v>609</v>
       </c>
     </row>
-    <row r="488" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C488" s="1" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="489" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C489" s="1" t="s">
         <v>611</v>
       </c>
     </row>
-    <row r="490" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C490" s="1" t="s">
         <v>612</v>
       </c>
     </row>
-    <row r="491" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C491" s="1" t="s">
         <v>613</v>
       </c>
     </row>
-    <row r="492" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C492" s="1" t="s">
         <v>614</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A493" s="4">
+        <v>45148</v>
+      </c>
+      <c r="B493" s="1">
+        <v>36</v>
+      </c>
+      <c r="C493" s="1" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C494" s="5" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C495" s="1" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C496" s="1" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C497" s="1" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C498" s="1" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C499" s="5" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C500" s="1" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C501" s="1" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C502" s="1" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C503" s="1" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C504" s="5" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C505" s="1" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A506" s="4">
+        <v>45149</v>
+      </c>
+      <c r="B506" s="1">
+        <v>37</v>
+      </c>
+      <c r="C506" s="1" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C507" s="1" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C508" s="1" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C509" s="1" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C510" s="1" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C511" s="1" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C512" s="1" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="513" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C513" s="1" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C514" s="1" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C515" s="1" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C516" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C517" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C518" s="1" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C519" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C520" s="1" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C521" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C522" s="1" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C523" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C524" s="1" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C525" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C526" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C527" s="1" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A528" s="4">
+        <v>45152</v>
+      </c>
+      <c r="B528" s="1">
+        <v>38</v>
+      </c>
+      <c r="C528" s="1" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="529" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C529" s="1" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="530" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C530" s="1" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="531" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C531" s="1" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="532" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C532" s="1" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="533" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C533" s="1" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="534" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C534" s="1" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="535" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C535" s="1" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="536" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C536" s="1" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="537" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C537" s="1" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="538" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C538" s="1" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="539" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C539" s="1" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="540" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C540" s="1" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="541" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C541" s="1" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="542" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C542" s="1" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="543" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C543" s="1" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="544" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C544" s="1" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C545" s="1" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C546" s="1" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C547" s="1" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C548" s="1" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C549" s="1" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C550" s="1" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C551" s="1" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C552" s="1" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="A553" s="4">
+        <v>45154</v>
+      </c>
+      <c r="B553" s="1">
+        <v>39</v>
+      </c>
+      <c r="C553" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C554" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C555" s="5" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C556" s="1" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C557" s="1" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C558" s="1" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C559" s="1" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C560" s="1" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C561" s="1" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C562" s="1" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C563" s="1" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C564" s="1" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A565" s="4">
+        <v>45155</v>
+      </c>
+      <c r="B565" s="1">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{520081A0-8ACC-4D78-A636-7C4206B5DF0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31050F17-1E03-4861-A647-5BEEC81ECFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="785">
   <si>
     <t>No of Day*</t>
   </si>
@@ -2110,6 +2110,300 @@
   </si>
   <si>
     <t>real time when ever you have lr those model run time is very high</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regularization technique - scaled high coeffiecient to low coefficient </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lasso | l1 == scaled high coefficient to zero </t>
+  </si>
+  <si>
+    <t>lass aka feature elimination technique</t>
+  </si>
+  <si>
+    <t>ridge === scaled down high coefficient to low coefficint but not zero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">elasticnet -- l1 + l2 </t>
+  </si>
+  <si>
+    <t>elasticnet inherit multicollinearity concept from l1 &amp; feature elimination from l2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed practcile about l1 &amp; l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lamda expression | score comparsion | slr vs l1 vs l2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature section technique </t>
+  </si>
+  <si>
+    <t>business understading | attribute understanding | filter method | wrapper method | embeddend method</t>
+  </si>
+  <si>
+    <t>practicle -- rfe &amp; l1 (act as feature elimination)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">chisqure test aka pearson chisuqre test weather data is normal distribute </t>
+  </si>
+  <si>
+    <t xml:space="preserve">if x2&lt; assign we acept null hypothesis </t>
+  </si>
+  <si>
+    <t xml:space="preserve">feature scaling technqieu </t>
+  </si>
+  <si>
+    <t>normalization = normalizer = min max scaler = min max transformer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">standarization = standard scaler -- transoformer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">normalization range is 0-1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">polynomial regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we done hyperparameter tunning with multiple degrees </t>
+  </si>
+  <si>
+    <t>poly 3, poly 4, poly 5, poly 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">non lineare regression algorithm - poly nomial </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduction svr </t>
+  </si>
+  <si>
+    <t>simple linear vs support vector</t>
+  </si>
+  <si>
+    <t>hyperplane | decission boundrya or support vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marginal distance -- +ve &amp; -ve </t>
+  </si>
+  <si>
+    <t>maximum marginal distance</t>
+  </si>
+  <si>
+    <t>-a &lt; y-wx+b &lt; +a this equeation fit the 2support vector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we always cosider maximum margins cuz we adjuste the more error </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we build svr practice </t>
+  </si>
+  <si>
+    <t>kernal - poly, rbf, sigmoid, linear, precomputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gamma - scale &amp; auto </t>
+  </si>
+  <si>
+    <t>hyperparameter tunning for svr with degrees</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to knn </t>
+  </si>
+  <si>
+    <t>we take the decission based on nearest neighbour</t>
+  </si>
+  <si>
+    <t>bydefault neighbour is 5 | we can tune this based on user request</t>
+  </si>
+  <si>
+    <t>distance matrix - manhattern &amp; euclidinan</t>
+  </si>
+  <si>
+    <t>weight - uniform &amp; distance</t>
+  </si>
+  <si>
+    <t>algo - auto, ball tree, kdtree, brute force</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we build knn model </t>
+  </si>
+  <si>
+    <t>knn - 175 | svr - 175 | poly - 174</t>
+  </si>
+  <si>
+    <t>decission tree --criteria - mse, mae, fridamn mse, posson</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cart - ca  classification || RT - REGRESSION </t>
+  </si>
+  <si>
+    <t>tree algorithm - dt, rf, boosting , gradient boosting , gbm &amp; lgbm</t>
+  </si>
+  <si>
+    <t>ensamble learning - bagging &amp; boosting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random forest - bagging </t>
+  </si>
+  <si>
+    <t>n-estimator - 100 ( we take decission 100 trees)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project pipelin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">worked on practice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resump project - avcado price prediction </t>
+  </si>
+  <si>
+    <t>this project connect with multiple domain ( regression project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression only 25% only completed </t>
+  </si>
+  <si>
+    <t>some real time project relavant towards regression --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">price prediciton | flight | train | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">electricy unit pridice prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">dry frufit prcie predciton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">walmart sales prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tata car sold price </t>
+  </si>
+  <si>
+    <t>crypto currecy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bit coin prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mark stock predciont </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to logistic regression </t>
+  </si>
+  <si>
+    <t xml:space="preserve">why logistic regression is classifcaiont &amp; regression also </t>
+  </si>
+  <si>
+    <t xml:space="preserve">when outlier is added to the data logit will started misclassifcaiotn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introudce prrobabiliyt curve &amp; sigmoid function </t>
+  </si>
+  <si>
+    <t>perforamance measure of classificaiton - confusion matrix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tp | tn | fp | fn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">acc = tp + tn / total || error rate = fp + fn / total </t>
+  </si>
+  <si>
+    <t xml:space="preserve">precission = tp / predicted yes ||| recall = tp / actual yes </t>
+  </si>
+  <si>
+    <t xml:space="preserve">f1 score </t>
+  </si>
+  <si>
+    <t xml:space="preserve">graph regarding logit </t>
+  </si>
+  <si>
+    <t>sigmoid curve range is 0 - 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dl we called this concept as sigmoid activation fucation | implement o/p layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed about one scenario based interview quesiton asked by L &amp; T </t>
+  </si>
+  <si>
+    <t xml:space="preserve">We build logistic model practice </t>
+  </si>
+  <si>
+    <t>from sklearn.linear_model import LogisticRegression</t>
+  </si>
+  <si>
+    <t>solver : {'newton-cg', 'lbfgs', 'liblinear', 'sag', 'saga'}, default='lbfgs'</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Algorithm to use in the optimization problem. Default is 'lbfgs'. </t>
+  </si>
+  <si>
+    <t>The choice of the algorithm depends on the penalty chosen: Supported penalties by solver:</t>
+  </si>
+  <si>
+    <t>'newton-cg' - ['l2', 'none']</t>
+  </si>
+  <si>
+    <t>'lbfgs' - ['l2', 'none']</t>
+  </si>
+  <si>
+    <t>'liblinear' - ['l1', 'l2']</t>
+  </si>
+  <si>
+    <t>'sag' - ['l2', 'none']</t>
+  </si>
+  <si>
+    <t>'saga' - ['elasticnet', 'l1', 'l2', 'none']</t>
+  </si>
+  <si>
+    <t>practice we build model for multiple time to compare accuracy, bias, variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">logit model please build above table </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- with normalizer test split - 20% &amp; 25% | ac | bias | variance - accuracy reduced </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- do hyperparmater tunning with all solver | standarizat @ 20% --&gt; ac - ACCURACY REDUCED </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- without feature scaling let me know the (accuracy both sclaing technique)  -- ACCURACY REDUCE </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- please use random_state = 21, 41, 51, 100 build the model with standsclaer 20% split </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- how to pass the 10 future recrods to the existing model &amp; lets model prediction </t>
+  </si>
+  <si>
+    <t>6- compare with future appointed customer</t>
+  </si>
+  <si>
+    <t>built logit model with hyperparameter tunning</t>
+  </si>
+  <si>
+    <t>we pass the future recording to the existing model and model predicted the future</t>
+  </si>
+  <si>
+    <t xml:space="preserve">compare test the model predicted vs future prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we need to 3 test cases it differs base organization to organzation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to automize the model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workin on project logit +eda + pca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">logistic model is complete </t>
   </si>
 </sst>
 </file>
@@ -2648,17 +2942,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C565"/>
+  <dimension ref="A1:C663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A549" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C564" sqref="C564"/>
+    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C666" sqref="C666"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.54296875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.08984375" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -5402,7 +5696,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="504" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C504" s="5" t="s">
         <v>626</v>
       </c>
@@ -5731,6 +6025,544 @@
       </c>
       <c r="B565" s="1">
         <v>40</v>
+      </c>
+      <c r="C565" s="1" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C566" s="1" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C567" s="1" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C568" s="1" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C569" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C570" s="1" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C571" s="1" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C572" s="1" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C573" s="1" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C574" s="1" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C575" s="1" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C576" s="1" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C577" s="1" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C578" s="1" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C579" s="1" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C580" s="1" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C581" s="1" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A582" s="4">
+        <v>45156</v>
+      </c>
+      <c r="B582" s="1">
+        <v>41</v>
+      </c>
+      <c r="C582" s="1" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C583" s="1" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C584" s="1" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C585" s="1" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="586" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C586" s="1" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C587" s="1" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C588" s="1" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C589" s="1" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C590" s="1" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A591" s="4">
+        <v>45159</v>
+      </c>
+      <c r="B591" s="1">
+        <v>42</v>
+      </c>
+      <c r="C591" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C592" s="1" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C593" s="1" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C594" s="1" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C595" s="1" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C596" s="1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C597" s="1" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C598" s="1" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C599" s="1" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C600" s="1" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C601" s="1" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C602" s="1" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C603" s="1" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C604" s="1" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A605" s="4">
+        <v>45160</v>
+      </c>
+      <c r="B605" s="1">
+        <v>43</v>
+      </c>
+      <c r="C605" s="1" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C606" s="1" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C607" s="1" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C608" s="1" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C609" s="1" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C610" s="1" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C611" s="1" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C612" s="1" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C613" s="1" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C614" s="1" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C615" s="1" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A616" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B616" s="1">
+        <v>44</v>
+      </c>
+      <c r="C616" s="1" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C617" s="1" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C618" s="1" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C619" s="1" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C620" s="1" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C621" s="1" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C622" s="1" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C623" s="1" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C624" s="1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A625" s="4">
+        <v>45161</v>
+      </c>
+      <c r="B625" s="1">
+        <v>44</v>
+      </c>
+      <c r="C625" s="1" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C626" s="1" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C627" s="1" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C628" s="1" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C629" s="1" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C630" s="1" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C631" s="1" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C632" s="1" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C633" s="1" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C634" s="1" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C635" s="1" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C636" s="1" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C637" s="1" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A638" s="4">
+        <v>45162</v>
+      </c>
+      <c r="B638" s="1">
+        <v>45</v>
+      </c>
+      <c r="C638" s="1" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C639" s="1" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C640" s="1" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C641" s="1" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C642" s="1" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C643" s="1" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C644" s="1" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C645" s="1" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C646" s="1" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C647" s="1" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C648" s="1" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C649" s="1" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C650" s="1" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C651" s="1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C652" s="1" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C653" s="1" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C654" s="1" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C655" s="1" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A656" s="4">
+        <v>45163</v>
+      </c>
+      <c r="B656" s="1">
+        <v>46</v>
+      </c>
+      <c r="C656" s="1" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C657" s="1" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C658" s="1" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="659" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C659" s="1" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C660" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C661" s="1" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C662" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A663" s="4">
+        <v>45166</v>
+      </c>
+      <c r="B663" s="1">
+        <v>47</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31050F17-1E03-4861-A647-5BEEC81ECFE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363D37F-F105-4425-9650-11CF41BF92D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="785">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="926">
   <si>
     <t>No of Day*</t>
   </si>
@@ -2404,6 +2404,429 @@
   </si>
   <si>
     <t xml:space="preserve">logistic model is complete </t>
+  </si>
+  <si>
+    <t>knn classificaton algorithm</t>
+  </si>
+  <si>
+    <t>math for knn we completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">imbalanced data using smothe </t>
+  </si>
+  <si>
+    <t>synthetic minority oversampling technique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">majority class &amp; minority class || oversampling &amp; undersampling </t>
+  </si>
+  <si>
+    <t>how knn use in classificaiton ( considered nearest neigbour take the decision based highest neighbour point)</t>
+  </si>
+  <si>
+    <t>how knn use in regression  considered nearest neigbour take the decision based mean of the  neighbour point</t>
+  </si>
+  <si>
+    <t xml:space="preserve">knn also used for imputation </t>
+  </si>
+  <si>
+    <t>out lier also impact on knn algorithmn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we don practice for knn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed project brest cancer prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">svm classifier </t>
+  </si>
+  <si>
+    <t>hyperplane | decission boundrya or support vector | marginal distance</t>
+  </si>
+  <si>
+    <t>LSVM (linearly separatble 2 classe)</t>
+  </si>
+  <si>
+    <t>non linear svm || not separate 2 class</t>
+  </si>
+  <si>
+    <t>by using KERNAL function we Low dimesnion to high dimension '</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PCA vs Kernal function of svm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linear kernal -- lsvm </t>
+  </si>
+  <si>
+    <t>rest of other used of non -linear | bydefautl is rbf</t>
+  </si>
+  <si>
+    <t>we don practice and team please work on HYPERPAMATER TUNNING</t>
+  </si>
+  <si>
+    <t>intreship project - credit card analysis ( imbaled datat)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pulsur star prediction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">conditional probality </t>
+  </si>
+  <si>
+    <t>bayes theorem | baysian theorem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to computer baysian theorem using help of conditional probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">math behin naïve bayes </t>
+  </si>
+  <si>
+    <t>2 independent event is naïve in naïve bayes</t>
+  </si>
+  <si>
+    <t>thompson reuter intrenship project as well</t>
+  </si>
+  <si>
+    <t>we complete naïve bayes algothim</t>
+  </si>
+  <si>
+    <t>In real time how naïve bayes formula implement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we discussed some of use case new employee predictiont towards drive or walk </t>
+  </si>
+  <si>
+    <t>how to compute probability also we covered</t>
+  </si>
+  <si>
+    <t>type of bernourli naïve byes</t>
+  </si>
+  <si>
+    <t>bernoulli naïve bayes -- bernoulli distribution ( we used when data is binary)</t>
+  </si>
+  <si>
+    <t>Gaussian  naïve bayes -- gausina  distribution ( we used when data is binary)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multinomial naïve baaye -- we do not use when the data is binary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gausina naie bayes does not required featur scaling </t>
+  </si>
+  <si>
+    <t>mulitinomia we can't pass -ve value that’s why use normalizer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">naïve bayes math, theory, concept , real use case also we are completed </t>
+  </si>
+  <si>
+    <t>how to create root node from the dataset</t>
+  </si>
+  <si>
+    <t>steps to create root node</t>
+  </si>
+  <si>
+    <t>purity split | impurity split</t>
+  </si>
+  <si>
+    <t>prunning parameter  - max_leaf_node | max_depth | min_sample_leaf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">entropy  | gini index |information gain </t>
+  </si>
+  <si>
+    <t xml:space="preserve">based on highest gain that will decide as root </t>
+  </si>
+  <si>
+    <t xml:space="preserve">root node always be an independent variable </t>
+  </si>
+  <si>
+    <t>decission tree doesnot required feature scaling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we done practice as well. </t>
+  </si>
+  <si>
+    <t>decission tree algorithm is completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when we build the tree indepth overfitting problem comes </t>
+  </si>
+  <si>
+    <t>overfitting - low bias high varinace</t>
+  </si>
+  <si>
+    <t>also diccussed math part</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENSAMBLE LEARNING -&gt; MIXTURE MODEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ensamble learning using different algo and we created strong learner or strong classifier </t>
+  </si>
+  <si>
+    <t>ensamble learning using differenc training data we create strong learner or strong classifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGGING - Random forest </t>
+  </si>
+  <si>
+    <t>BOOSTING - adaboost | gradient boosting | xgboost</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VOTING | STACKING - hard voting &amp; soft voting </t>
+  </si>
+  <si>
+    <t xml:space="preserve">random forest model practice we build </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discusse math part for random forest </t>
+  </si>
+  <si>
+    <t>bootstrpaing | decission stump</t>
+  </si>
+  <si>
+    <t xml:space="preserve">random forest also used for overfitting </t>
+  </si>
+  <si>
+    <t>when we do multiple split high variaance will scale down low variance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">also we dsicussed how boosting is calledas sequential tree </t>
+  </si>
+  <si>
+    <t>decisison tree indepth tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gradient boost we build the tree i.v with residual </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed on xg boost </t>
+  </si>
+  <si>
+    <t xml:space="preserve">xgboost also type of framework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we also build the model in xgboost + sklearn </t>
+  </si>
+  <si>
+    <t>churn prediction for different domain</t>
+  </si>
+  <si>
+    <t>xgboost reducec overfitting parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxdepth --&gt; 2 - 30 </t>
+  </si>
+  <si>
+    <t>subsample --&gt; 0.1 to 1</t>
+  </si>
+  <si>
+    <t>col sample by level --&gt; 0.1 to 1</t>
+  </si>
+  <si>
+    <t>col sample by tree --&gt; 0.1 to 1</t>
+  </si>
+  <si>
+    <t>min_child width--&gt; 1, 5, 100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n_estimator --&gt; 10 - 1000 </t>
+  </si>
+  <si>
+    <t>learning rate --&gt; 0.01 - 0.08</t>
+  </si>
+  <si>
+    <t>xgboost parameter | hyperparmeter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whenevery you train xgboost model training time would be very hight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we using learning rate (gd) </t>
+  </si>
+  <si>
+    <t>1- please build with xgboost with differeent hyperparamater tunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- please build with all sklearn classification model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- please build the ranking table for all the classificaiotn </t>
+  </si>
+  <si>
+    <t>cross validation</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> auc &amp; roc curve</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> model tunning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cross validation - when the model is overfitted at that time we are using cv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">leave one out cv -- every time test split should be 1 </t>
+  </si>
+  <si>
+    <t>stratified cv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">time series cv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">k-fold cv -&gt; we consider constan test recores and we build the model &amp; then we take avearge of the model </t>
+  </si>
+  <si>
+    <t>model tunning or hyperparmater tunning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">randomsearch cv </t>
+  </si>
+  <si>
+    <t xml:space="preserve">gridsearch cv -- after buiild the model, ac, bias ( we can implement now </t>
+  </si>
+  <si>
+    <t>if the model is overfitted then only we can implete cv grid or random</t>
+  </si>
+  <si>
+    <t>from sklearn.model_selection import GridSearchCV</t>
+  </si>
+  <si>
+    <t>AUC - ROC curve is a performance measurement for the classification problems at various threshold</t>
+  </si>
+  <si>
+    <t xml:space="preserve">performance mneasure graphs for classifion only </t>
+  </si>
+  <si>
+    <t>x-axis = fpr  | y-axis = tpr</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sensitivity vs 1-specifity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to compute thresshold setting at diffener probabiliyt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we understand math for auc &amp; roc cuve </t>
+  </si>
+  <si>
+    <t>machinelearnin (classification &amp; regression) - completed</t>
+  </si>
+  <si>
+    <t>1- Python toward macine learning interview questoion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- How to prepared data science resume </t>
+  </si>
+  <si>
+    <t xml:space="preserve">fresher category | mid experience  category | experience category </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- from chatgpt we take referenc as -- </t>
+  </si>
+  <si>
+    <t>1-experience datascience resume</t>
+  </si>
+  <si>
+    <t>2-expernce machine learning resume</t>
+  </si>
+  <si>
+    <t>3-experience ai engieer reusme</t>
+  </si>
+  <si>
+    <t>4-experience nlp engieenr regume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5-experinece data anlsyis resume </t>
+  </si>
+  <si>
+    <t>6-experience busine analyst resume</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7-experience computer vision engieeer resume </t>
+  </si>
+  <si>
+    <t>we discuss experience profession resume, cs along with project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how 8yr , 18yr experience cadndient real time cv we also discussed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">resume project from different websire </t>
+  </si>
+  <si>
+    <t xml:space="preserve">almost we disucsed 125 project </t>
+  </si>
+  <si>
+    <t>how to get code I will share my github(500 project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to apply job from various website </t>
+  </si>
+  <si>
+    <t xml:space="preserve">best waay apply is --&gt; google search | chatgpt | naukri | linkedin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">please registred paid naukri profile </t>
+  </si>
+  <si>
+    <t xml:space="preserve">linked in -- profils are very strong | upload project </t>
+  </si>
+  <si>
+    <t xml:space="preserve">make presentation yourself for self introduction | project in resume | recording | 1000 interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to take help from equal minded frinds  at the time of interview </t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learing -- regression &amp; classifiocant completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">machine learning model deployemnt </t>
+  </si>
+  <si>
+    <t>what is the business problem statement , use case</t>
+  </si>
+  <si>
+    <t>how to cloen the db &amp; why it is cloned</t>
+  </si>
+  <si>
+    <t>how to data extraction using sql | data clenadin g</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dataset is get ready </t>
+  </si>
+  <si>
+    <t xml:space="preserve">process, build the regression model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joblib - lighweigh pipeline | simple apo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joblib.dump() - save the file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">joblib.load() -- load the file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">.pkl file --&gt; The term "pickle" is derived from the idea of preserving something for later use, similar to pickling vegetables to preserve them for future consumption. In Python, the pickle module provides a way to serialize and deserialize (i.e., save and load) Python objects, including data structures, functions, and custom </t>
+  </si>
+  <si>
+    <t xml:space="preserve">where to store &amp; get the pkl file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">introuce to flask -- webframework </t>
+  </si>
+  <si>
+    <t xml:space="preserve">today we tested how to create frontend using flask application </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pease work on gbm  | lgbm </t>
   </si>
 </sst>
 </file>
@@ -2942,17 +3365,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C663"/>
+  <dimension ref="A1:C805"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A659" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C666" sqref="C666"/>
+    <sheetView tabSelected="1" topLeftCell="A798" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C804" sqref="C804"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.54296875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="74.08984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="74.6328125" style="1" customWidth="1"/>
     <col min="4" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
@@ -6563,6 +6986,782 @@
       </c>
       <c r="B663" s="1">
         <v>47</v>
+      </c>
+      <c r="C663" s="1" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C664" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C665" s="1" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C666" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C667" s="1" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C668" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C669" s="1" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C670" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C671" s="1" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C672" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C673" s="1" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A674" s="4">
+        <v>45167</v>
+      </c>
+      <c r="B674" s="1">
+        <v>48</v>
+      </c>
+      <c r="C674" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C675" s="1" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C676" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C677" s="1" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C678" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C679" s="1" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C680" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C681" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C682" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C683" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C684" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A685" s="4">
+        <v>45168</v>
+      </c>
+      <c r="B685" s="1">
+        <v>49</v>
+      </c>
+      <c r="C685" s="1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C686" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C687" s="1" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C688" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C689" s="1" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C690" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A691" s="4">
+        <v>45169</v>
+      </c>
+      <c r="B691" s="1">
+        <v>50</v>
+      </c>
+      <c r="C691" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C692" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C693" s="1" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C694" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C695" s="1" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C696" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C697" s="1" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C698" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C699" s="1" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C700" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C701" s="1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A702" s="4">
+        <v>45170</v>
+      </c>
+      <c r="B702" s="1">
+        <v>51</v>
+      </c>
+      <c r="C702" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C703" s="1" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C704" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C705" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C706" s="1" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C707" s="1" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C708" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C709" s="1" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C710" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C711" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C712" s="1" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C713" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C714" s="1" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A715" s="4">
+        <v>45173</v>
+      </c>
+      <c r="B715" s="1">
+        <v>52</v>
+      </c>
+      <c r="C715" s="1" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C716" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C717" s="1" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C718" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C719" s="1" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C720" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C721" s="1" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C722" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C723" s="1" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C724" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C725" s="1" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C726" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C727" s="1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C728" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A729" s="4">
+        <v>45174</v>
+      </c>
+      <c r="B729" s="1">
+        <v>53</v>
+      </c>
+      <c r="C729" s="1" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C730" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C731" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="732" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C732" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="733" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C733" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="734" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C734" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="735" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C735" s="1" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="736" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C736" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="737" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C737" s="1" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C738" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C739" s="1" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C740" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C741" s="1" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C742" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="743" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C743" s="1" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="744" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C744" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="745" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C745" s="1" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="746" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C746" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="747" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A747" s="4">
+        <v>45175</v>
+      </c>
+      <c r="B747" s="1">
+        <v>54</v>
+      </c>
+      <c r="C747" s="1" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="748" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C748" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C749" s="1" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C750" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C751" s="1" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C752" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C753" s="1" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="754" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C754" s="5" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="755" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C755" s="1" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="756" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C756" s="1" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="757" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C757" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="758" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C758" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="759" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C759" s="1" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="760" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C760" s="1" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C761" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C762" s="1" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C763" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C764" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C765" s="1" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="766" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C766" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="767" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A767" s="4">
+        <v>45176</v>
+      </c>
+      <c r="B767" s="1">
+        <v>55</v>
+      </c>
+      <c r="C767" s="1" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="768" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C768" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="769" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C769" s="1" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="770" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C770" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="771" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C771" s="1" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="772" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C772" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="773" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C773" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="774" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C774" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="775" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C775" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="776" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C776" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="777" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C777" s="1" t="s">
+        <v>899</v>
+      </c>
+    </row>
+    <row r="778" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C778" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="779" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C779" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="780" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A780" s="4">
+        <v>45177</v>
+      </c>
+      <c r="B780" s="1">
+        <v>56</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="781" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C781" s="1" t="s">
+        <v>903</v>
+      </c>
+    </row>
+    <row r="782" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C782" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="783" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C783" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="784" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C784" s="1" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="785" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C785" s="1" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="786" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C786" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="787" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C787" s="1" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="788" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C788" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="789" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C789" s="1" t="s">
+        <v>911</v>
+      </c>
+    </row>
+    <row r="790" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A790" s="4">
+        <v>45180</v>
+      </c>
+      <c r="B790" s="1">
+        <v>57</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="791" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C791" s="1" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="792" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C792" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="793" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C793" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="794" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C794" s="1" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="795" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C795" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="796" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C796" s="1" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="797" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C797" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="798" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C798" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="799" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C799" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="800" spans="1:3" ht="52" x14ac:dyDescent="0.3">
+      <c r="C800" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="801" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C801" s="1" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="802" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C802" s="1" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="803" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C803" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="804" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C804" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="805" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A805" s="4">
+        <v>45181</v>
+      </c>
+      <c r="B805" s="1">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1363D37F-F105-4425-9650-11CF41BF92D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212D7BB-E64E-4C11-A8A1-16C3A981E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1036" uniqueCount="926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1112">
   <si>
     <t>No of Day*</t>
   </si>
@@ -2827,6 +2827,572 @@
   </si>
   <si>
     <t xml:space="preserve">pease work on gbm  | lgbm </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Before you deply any code or any product make sure all the files should be in 1 folder --- bydefault </t>
+  </si>
+  <si>
+    <t xml:space="preserve">backend code </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frontend designer | html page design </t>
+  </si>
+  <si>
+    <t xml:space="preserve">backedn + html + fronendd evloper == product </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deployemnt team </t>
+  </si>
+  <si>
+    <t>deployemnt code never runs line by line</t>
+  </si>
+  <si>
+    <t>what are the issues you face while deploy the model from applicaiton server to production server ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> open source library || whild deployemet all the applicaiton should be licensed one ( ananconda business edition) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; security ( while ( personal credential || hipaa | pip |) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; what is the runtime duration for train the data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--&gt; data quality issue  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> database timeer | location | big data | what model need to be used to train</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduce to clustering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">we are done the practice </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to create log file, the moment when we create front end how to get the backend log file </t>
+  </si>
+  <si>
+    <t>clustering algorithm == unsupervise learning ( unstructured data) unlabeled data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cluster --- grouping </t>
+  </si>
+  <si>
+    <t xml:space="preserve">real time projects -- customer segmentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">shoping -- </t>
+  </si>
+  <si>
+    <t>rate of the meal ( 1, 2, 3, 4, 5)</t>
+  </si>
+  <si>
+    <t>customert rate for 1 star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how many customer rate for 2 start </t>
+  </si>
+  <si>
+    <t>clustering --&gt;</t>
+  </si>
+  <si>
+    <t>centroid (center point)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to choose number of clusters  ----&gt; elbow graph | elbow method </t>
+  </si>
+  <si>
+    <t>k-means | hierarchical clustering | dbscan clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">today math part - euclidian distance </t>
+  </si>
+  <si>
+    <t>wcss ( within cluster sum of squard)</t>
+  </si>
+  <si>
+    <t>in elbow grah what would be your x-axis -- no of centroid &amp; y-axis --wcss</t>
+  </si>
+  <si>
+    <t>elkan algorithm -- k-means | heuristic</t>
+  </si>
+  <si>
+    <t>we also worked on practice how to apply k-means clustering</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hierarchical clustering --&gt; aggloemerative clustiern - create the cluster from bottom to top approach </t>
+  </si>
+  <si>
+    <t>divisive clustering -- top to bottom approach to make the data points</t>
+  </si>
+  <si>
+    <t xml:space="preserve">import scipy.cluster.hierarchy as sch </t>
+  </si>
+  <si>
+    <t>introduce to scipy - single linkage &amp; double linkage</t>
+  </si>
+  <si>
+    <t>mathod ==&gt; single || -- Nearest Point Algorithm</t>
+  </si>
+  <si>
+    <t>Complete || -- Farthest Point Algorithm or Voor Hees Algorithm.</t>
+  </si>
+  <si>
+    <t>average || - UPGMA algorithm.</t>
+  </si>
+  <si>
+    <t>weighted || - also called WPGMA</t>
+  </si>
+  <si>
+    <t>centroid || -- UPGMC algorithm</t>
+  </si>
+  <si>
+    <t>median ||  - This is also known as the WPGMC algorithm.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ward || -  minimization algorithm. </t>
+  </si>
+  <si>
+    <t>from sklearn.cluster import AgglomerativeClustering</t>
+  </si>
+  <si>
+    <t>affinity -- "euclidean", "l1", "l2", "manhattan", "cosine", or "precomputed"</t>
+  </si>
+  <si>
+    <t>linkage{'ward', 'complete', 'average', 'single'},</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we also practise about hierarchical clustering </t>
+  </si>
+  <si>
+    <t xml:space="preserve">minium neighbour point should be 3 hear </t>
+  </si>
+  <si>
+    <t xml:space="preserve">discussed about india | out of the inida 
+- 2hr to apply the job 
+- intervive call ( attend the interview &amp; forget the interview)
+- offer should recive in your email ( job )
+- dont pay 1 rupee to get the job ( fake)
+- dont provide certificate to any once before the job 
+- use your resume and keep giving interview 
+- get offer but 12lpa ( 1st shot)
+- 14th sep 23 - 14th sep 25  -- 1yr ( 1 offer ) </t>
+  </si>
+  <si>
+    <t>Introduce to artficial intelligence</t>
+  </si>
+  <si>
+    <t>NLTK installation --&gt;</t>
+  </si>
+  <si>
+    <t>NLP Packages -- NLTK | SPACY | STANDFORD NLP | GENSIM</t>
+  </si>
+  <si>
+    <t>steps to install nltk --&gt;</t>
+  </si>
+  <si>
+    <t>import os | import nltk | nltk.download()</t>
+  </si>
+  <si>
+    <t>NLU --&gt; tokenization, stemming, lematization, pos, ner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tokenization also called as tokens </t>
+  </si>
+  <si>
+    <t>words = tokens || from nltk.tokenize import word_tokenize</t>
+  </si>
+  <si>
+    <t xml:space="preserve">from nltk.tokenize import sent_tokenize </t>
+  </si>
+  <si>
+    <t>blankline_tokenize</t>
+  </si>
+  <si>
+    <t>word_tokenize --&gt; words</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sent_tokenize --&gt; sent </t>
+  </si>
+  <si>
+    <t>punct_tokenize --&gt; 3.88 ( '3' '.' '88')</t>
+  </si>
+  <si>
+    <t>blankline_tokenize --&gt; paragraph</t>
+  </si>
+  <si>
+    <t xml:space="preserve">whiteapsce_tokenizer--&gt; tokenswith. </t>
+  </si>
+  <si>
+    <t>tokens divide to 3 part --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bigram  - 2 consective tokens </t>
+  </si>
+  <si>
+    <t>trigram - tokens with 3 consective words</t>
+  </si>
+  <si>
+    <t>ngram - tokens with more then 3 workds</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stemming -- give you root word </t>
+  </si>
+  <si>
+    <t xml:space="preserve">porterstemer --&gt;  give </t>
+  </si>
+  <si>
+    <t>lancasterstemmer --&gt; giv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snowballstemmer --&gt; give </t>
+  </si>
+  <si>
+    <t>lematization - it give proper words | stemming - it give root form of an word</t>
+  </si>
+  <si>
+    <t>text preprocessing &amp; text mining you need to eliminate all stopword to get better result</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to get stopwords for multiple language </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pos == part of speech </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NER best library is spacy </t>
+  </si>
+  <si>
+    <t>from nltk import ne_chunk</t>
+  </si>
+  <si>
+    <t>NLU topic completed --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLG (visualization)  (natural langaure generation) -- wordcloud </t>
+  </si>
+  <si>
+    <t>NLP introduction is completed</t>
+  </si>
+  <si>
+    <t>how to install R programing language --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- anacoda navigator --&gt; R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">download &amp; install specific version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cran.r-project.org/bin/windows/base/ </t>
+  </si>
+  <si>
+    <t>download &amp; install r studio --&gt;</t>
+  </si>
+  <si>
+    <t>https://www.rstudio.com/products/rstudio/download/</t>
+  </si>
+  <si>
+    <t>NLP ALGORITHM || WORD EMBEDDING ALGORTHM --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convert text - number -- we apply to machine learning  ==&gt; vectorization </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to convert unstrcuted data to structured data </t>
+  </si>
+  <si>
+    <t>Word embedding algorithm --&gt;</t>
+  </si>
+  <si>
+    <t>1- bow ( bag of word) -- done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- tfidf (tf * idf) term frequency * inverse document freaquency) -- done </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- word2vec -- gensim library </t>
+  </si>
+  <si>
+    <t>BOW (BAG OF WORD)---&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.feature_extraction import countvectorizer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TFIDF ==&gt; TF * IDF </t>
+  </si>
+  <si>
+    <t>TERM FREQUENCY = NO OF REPETTATION OF WORDS IN SENTENCE / NO OF WORDS IN SENTENECE</t>
+  </si>
+  <si>
+    <t>IDF = LOG(NO OF SENTENCE / NO OF SENTENCE CONTAINGING WORD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vectorize text document to numer using bow or tfidf </t>
+  </si>
+  <si>
+    <t xml:space="preserve">word2vec algorithm --&gt;skip gram | cbow </t>
+  </si>
+  <si>
+    <t xml:space="preserve">--- other word2vec algoriytm --&gt;FastText. || doc2vec </t>
+  </si>
+  <si>
+    <t xml:space="preserve">GENSIM LIBRARY ---&gt; RESEARCH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nlp algorithm we are completed </t>
+  </si>
+  <si>
+    <t>customer review analysis = customer feedback anlaysis == sentiment analysis</t>
+  </si>
+  <si>
+    <t>worked on capstone project for banking || insurnce || telcome | finance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to convert unstruct data - structured data - ml algorithm </t>
+  </si>
+  <si>
+    <t>we build practice and the model is underfitted</t>
+  </si>
+  <si>
+    <t xml:space="preserve">assigned task to reduce underfitting </t>
+  </si>
+  <si>
+    <t>building the model without stopwords</t>
+  </si>
+  <si>
+    <t>what type of challenges we face in real time sceanrio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">practised data type in R </t>
+  </si>
+  <si>
+    <t xml:space="preserve">practise data structure in R </t>
+  </si>
+  <si>
+    <t>understand how python is different then R</t>
+  </si>
+  <si>
+    <t>python -m spacy download en_core_web_sm</t>
+  </si>
+  <si>
+    <t>en_core_web_md || en_core_web_lg</t>
+  </si>
+  <si>
+    <t>fr_core_web_sm | fr_core_web_md\</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spacy </t>
+  </si>
+  <si>
+    <t>text summarization using spacy library --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">heapq --&gt; ascendeig &amp; descending order </t>
+  </si>
+  <si>
+    <t>twython libraryy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text summerization </t>
+  </si>
+  <si>
+    <t>heapq  -- nlargest &amp; nsmallest</t>
+  </si>
+  <si>
+    <t>spark -- big data tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">spark + java </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spark  + c </t>
+  </si>
+  <si>
+    <t xml:space="preserve">spark + python = pyspark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pyspark -- individual </t>
+  </si>
+  <si>
+    <t>or when you instlal hadoop then spark is inbuild in haddop ecosystem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fault tolerance -- </t>
+  </si>
+  <si>
+    <t>hdfs -- hadoop distributed file system</t>
+  </si>
+  <si>
+    <t>dbfs -- databricks fille system</t>
+  </si>
+  <si>
+    <t>Steps to installation of pyspark --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- download &amp; Install anaconda </t>
+  </si>
+  <si>
+    <t>2- download &amp; Install java jdk8 only applicable  --&gt;</t>
+  </si>
+  <si>
+    <t>3- cmd -- java -version (200% it will not work )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- cut java folder from progam file --&gt; create a new folder in c:drive | move java folder to cdrive </t>
+  </si>
+  <si>
+    <t>5- Download spark file from --&gt;https://www.apache.org/dyn/closer.lua/spark/spark-3.5.0/spark-3.5.0-bin-hadoop3.tgz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- cut spark zip folder from downlload folder move to c:drive (dnt creat any folder) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- winutils (hadooop exten) </t>
+  </si>
+  <si>
+    <t>8- after donwload hadoop.exe cut the file and paste to (spark | bin | past )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9- set enviroment variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- start - env - edit the system environment variable -- environment variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11- user varaiable &amp; system variable </t>
+  </si>
+  <si>
+    <t>12- user variable -- New -- JAVA-HOME === ASSIGN THE PATH TO IT (C:\DATA ENGINEER\Java\jdk1.8.0_202</t>
+  </si>
+  <si>
+    <t>13- user variable -- New - Spark-Home === ASSIGN THE PATH TO IT (C:\spark-3.2.1-bin-hadoop3.2\spark-3.2.1-bin-hadoop3.2</t>
+  </si>
+  <si>
+    <t>14- user variable -- New - Hadoop-Home === ASSIGN THE PATH TO IT (C:\spark-3.2.1-bin-hadoop3.2\spark-3.2.1-bin-hadoop3.2</t>
+  </si>
+  <si>
+    <t>15- system variable - path - new - C:\DATA ENGINEER\Java\jdk1.8.0_202\bin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16- system variable - path - new - C:\spark-3.2.1-bin-hadoop3.2\spark-3.2.1-bin-hadoop3.2\bin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">17- cmd -- java -version -- 300% it will work </t>
+  </si>
+  <si>
+    <t>18- install FINDSPARK pkg from anaconda prompt --&gt; https://anaconda.org/conda-forge/findspark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19- cmd - pyspark -- you will see spark logo -- installed successfully </t>
+  </si>
+  <si>
+    <t xml:space="preserve">20- jupyter - new notebook -- </t>
+  </si>
+  <si>
+    <t>import pyspark | pip install pyspark</t>
+  </si>
+  <si>
+    <t>import findspark | findspark.init() | findspark.find()</t>
+  </si>
+  <si>
+    <t>import xml.etree.ElementTree as ET</t>
+  </si>
+  <si>
+    <t>A data structure representing a parsed HTML or XML document. -- beautifullsoup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">text cleaning using some of the important library </t>
+  </si>
+  <si>
+    <t>we are discusion with xml artick e-</t>
+  </si>
+  <si>
+    <t>website -- collection of xml article/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">banking |  heal care | instura | </t>
+  </si>
+  <si>
+    <t xml:space="preserve">project  1- text cleaing from single article </t>
+  </si>
+  <si>
+    <t xml:space="preserve">project- text cleanrin from all the combine article then clean it </t>
+  </si>
+  <si>
+    <t>discussed about business usecase on realtime basis</t>
+  </si>
+  <si>
+    <t>fresher -- uci machine learning repository</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Introduce to R basic programming </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to work with multiple xml file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">glob package --&gt; it will combine similar type extensensin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to joint the path </t>
+  </si>
+  <si>
+    <t>call the path location - extract the xml file - get the content from each xml file</t>
+  </si>
+  <si>
+    <t>cluster them - discussed real time elbow graphs are different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">wordcloud from the many xml file -- 6 cluster </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to visualize all the 6 cluster and we understand this </t>
+  </si>
+  <si>
+    <t xml:space="preserve">NLP we completed </t>
+  </si>
+  <si>
+    <t># Clear plots from r studio --&gt;</t>
+  </si>
+  <si>
+    <t>dev.off()</t>
+  </si>
+  <si>
+    <t>#Clear console</t>
+  </si>
+  <si>
+    <t>cat("\014")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">p_load(pacman, dplyr, GGally, ggplot2, ggthemes, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ggvis, httr, lubridate, plotly, rio, rmarkdown, shiny, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  stringr, tidyr) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  install.packages("pacman")</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  ggplot - matplotlibb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I assigned r basic plot for practise </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lets combine multiple article xml file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">urllib -- url's + lib </t>
+  </si>
+  <si>
+    <t>nlp + python + clusteirng + ml + scraping (project)</t>
   </si>
 </sst>
 </file>
@@ -3365,10 +3931,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C805"/>
+  <dimension ref="A1:C991"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A798" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C804" sqref="C804"/>
+    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C995" sqref="C995"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -7762,6 +8328,1002 @@
       </c>
       <c r="B805" s="1">
         <v>58</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="806" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C806" s="1" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="807" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C807" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="808" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C808" s="1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="809" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C809" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="810" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C810" s="1" t="s">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="811" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C811" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="812" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C812" s="1" t="s">
+        <v>933</v>
+      </c>
+    </row>
+    <row r="813" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C813" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="814" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C814" s="1" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="815" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C815" s="1" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="816" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C816" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="817" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C817" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="818" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C818" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="819" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C819" s="1" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="820" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A820" s="4">
+        <v>45182</v>
+      </c>
+      <c r="B820" s="1">
+        <v>59</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="821" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C821" s="1" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="822" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C822" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="823" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C823" s="1" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="824" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C824" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="825" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C825" s="1" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="826" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C826" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="827" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C827" s="1" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="828" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C828" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="829" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C829" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="830" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C830" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="831" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C831" s="1" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="832" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C832" s="1" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="833" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C833" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="834" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C834" s="1" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="835" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C835" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="836" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A836" s="4">
+        <v>45183</v>
+      </c>
+      <c r="B836" s="1">
+        <v>60</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="837" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C837" s="1" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="838" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C838" s="1" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="839" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C839" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="840" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C840" s="1" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="841" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C841" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="842" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C842" s="1" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="843" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C843" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="844" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C844" s="1" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="845" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C845" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="846" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C846" s="1" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="847" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C847" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="848" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C848" s="1" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="849" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C849" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="850" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C850" s="1" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="851" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C851" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="852" spans="1:3" ht="117" x14ac:dyDescent="0.3">
+      <c r="C852" s="5" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="853" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C853" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="854" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C854" s="1" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="855" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C855" s="1" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="856" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C856" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="857" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C857" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="858" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A858" s="4">
+        <v>45184</v>
+      </c>
+      <c r="B858" s="1">
+        <v>61</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="859" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C859" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="860" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C860" s="1" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="861" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C861" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="862" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C862" s="1" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="863" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C863" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="864" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C864" s="1" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="865" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C865" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="866" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C866" s="1" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="867" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C867" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="868" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C868" s="1" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="869" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C869" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="870" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C870" s="1" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="871" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C871" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="872" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C872" s="1" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="873" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C873" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="874" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C874" s="1" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="875" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C875" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="876" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C876" s="1" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="877" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C877" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="878" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C878" s="1" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="879" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A879" s="4">
+        <v>45185</v>
+      </c>
+      <c r="B879" s="1">
+        <v>62</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="880" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C880" s="1" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="881" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C881" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="882" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C882" s="1" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="883" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C883" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="884" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C884" s="1" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="885" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C885" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="886" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C886" s="1" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="887" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C887" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="888" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C888" s="1" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="889" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C889" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="890" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C890" s="1" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="891" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A891" s="4">
+        <v>45188</v>
+      </c>
+      <c r="B891" s="1">
+        <v>63</v>
+      </c>
+      <c r="C891" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="892" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C892" s="1" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="893" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C893" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="894" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C894" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="895" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C895" s="1" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="896" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C896" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="897" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C897" s="1" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="898" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C898" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="899" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C899" s="1" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="900" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C900" s="1" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="901" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C901" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="902" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C902" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="903" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C903" s="1" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="904" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C904" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="905" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C905" s="1" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="906" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C906" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="907" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C907" s="1" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="908" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A908" s="4">
+        <v>45189</v>
+      </c>
+      <c r="B908" s="1">
+        <v>64</v>
+      </c>
+      <c r="C908" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="909" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C909" s="1" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="910" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C910" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="911" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C911" s="1" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="912" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C912" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C913" s="1" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C914" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C915" s="1" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C916" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C917" s="1" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A918" s="4">
+        <v>45190</v>
+      </c>
+      <c r="B918" s="1">
+        <v>65</v>
+      </c>
+      <c r="C918" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C919" s="1" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C920" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C921" s="1" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C922" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C923" s="1" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C924" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C925" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C926" s="1" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A927" s="4">
+        <v>45191</v>
+      </c>
+      <c r="B927" s="1">
+        <v>66</v>
+      </c>
+      <c r="C927" s="1" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C928" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="929" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C929" s="1" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="930" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C930" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="931" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C931" s="1" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="932" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C932" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="933" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C933" s="1" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="934" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C934" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="935" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C935" s="1" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="936" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C936" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="937" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C937" s="1" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="938" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C938" s="1" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="939" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C939" s="1" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="940" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C940" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="941" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C941" s="1" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="942" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C942" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="943" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C943" s="1" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="944" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C944" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="945" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C945" s="1" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="946" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C946" s="1" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="947" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C947" s="1" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="948" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C948" s="1" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="949" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C949" s="1" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="950" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C950" s="1" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="951" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C951" s="1" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="952" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C952" s="1" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="953" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C953" s="1" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="954" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C954" s="1" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="955" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C955" s="1" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="956" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C956" s="1" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="957" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C957" s="1" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="958" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C958" s="1" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="959" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A959" s="4">
+        <v>45194</v>
+      </c>
+      <c r="B959" s="1">
+        <v>67</v>
+      </c>
+      <c r="C959" s="1" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="960" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C960" s="1" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="961" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C961" s="1" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="962" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C962" s="1" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="963" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C963" s="1" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="964" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C964" s="1" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="965" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C965" s="1" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="966" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C966" s="1" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="967" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C967" s="1" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="968" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C968" s="1" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="969" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C969" s="1" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="970" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A970" s="4">
+        <v>45195</v>
+      </c>
+      <c r="B970" s="1">
+        <v>68</v>
+      </c>
+      <c r="C970" s="1" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="971" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C971" s="1" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="972" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C972" s="1" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="973" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C973" s="1" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="974" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C974" s="1" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="975" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C975" s="1" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="976" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C976" s="1" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="977" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C977" s="1" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="978" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C978" s="1" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="979" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C979" s="1" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="980" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C980" s="1" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="981" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C981" s="1" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="982" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C982" s="1" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C983" s="1" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C984" s="1" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C985" s="1" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C986" s="1" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="987" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C987" s="1" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C988" s="1" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="989" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C989" s="1" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="990" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C990" s="1" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="991" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A991" s="4">
+        <v>45196</v>
+      </c>
+      <c r="B991" s="1">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/NIT-FSDS-10AM_ Course Summarization.xlsx
+++ b/NIT-FSDS-10AM_ Course Summarization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kdata\Desktop\KODI WORK\1. NARESH\1. MORNING BATCH\N_Batch -- 10.00AM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2212D7BB-E64E-4C11-A8A1-16C3A981E13D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2BDD5F-A4E9-4C7F-863C-118B87E07246}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{0F768A63-761B-48D5-A78E-DCEF5739C8DC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1222" uniqueCount="1112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1584" uniqueCount="1474">
   <si>
     <t>No of Day*</t>
   </si>
@@ -3393,6 +3393,1092 @@
   </si>
   <si>
     <t>nlp + python + clusteirng + ml + scraping (project)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">introduction to deep learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn - framework ml </t>
+  </si>
+  <si>
+    <t xml:space="preserve">nltk, spacy - framework for nlp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensforflow - framework for deep learning </t>
+  </si>
+  <si>
+    <t xml:space="preserve">some time machine learnign fails then only we go to deep learning </t>
+  </si>
+  <si>
+    <t>images, audio, video,sensor -- deep leanring ( sklearn framework not works)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow environemt </t>
+  </si>
+  <si>
+    <t>STEPS TO CREATE TENSORFLOW ENVIRONMENT --&gt;</t>
+  </si>
+  <si>
+    <t>1- anconda prompt</t>
+  </si>
+  <si>
+    <t>2- conda create -n tensorflow_env tensorflow</t>
+  </si>
+  <si>
+    <t>3- Activate tensorflow_env  ( base will convert to tensorflow_env)</t>
+  </si>
+  <si>
+    <t>4- Anaconda navigator -- change from base to tensorfflow_env</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- click on setting of jupyter notebook - install specfic version </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- click on setting of spyder -- install specific version </t>
+  </si>
+  <si>
+    <t>7- start - expand to anaconda folder -- jypyter icon( tf) || spyder icon(Tf)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">8- lets install all packages under tensorlow_env </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9- pip install keras==2.3.1   (install keras library) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- pip install torch==1.5.1+cpu torchvision==0.6.1+cpu -f https://download.pytorch.org/whl/torch_stable.html </t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 - pip install opencv-python  (install opencv tensorflow &amp; base as well) || </t>
+  </si>
+  <si>
+    <t xml:space="preserve">12- pip install ultralytics ( https://pypi.org/project/ultralytics/) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">13- other basic libraries need to install on tensorflow_env( - numpy, scipy, pandas, matplotlib, seaborn, sklearn, nltk, spacy, gensim, etc </t>
+  </si>
+  <si>
+    <t xml:space="preserve">14- lets test tensoflow in jupyter </t>
+  </si>
+  <si>
+    <t>15- jupyter base -- import tensorflow as tf (it will error)</t>
+  </si>
+  <si>
+    <t>16- jupyter tensorflow -- import tensorflow as tf ( it will work)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17 - from keras.preprocessing.image import ImageDataGenerator </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> (tensorflow always backed &amp; keras is frontend)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18 - successfully installation are completed </t>
+  </si>
+  <si>
+    <t xml:space="preserve">also introduce on pyspark code </t>
+  </si>
+  <si>
+    <t>rom pyspark.sql import SparkSession</t>
+  </si>
+  <si>
+    <t>spark = SparkSession.builder.appName('practise').getOrCreate()</t>
+  </si>
+  <si>
+    <t>spark.read.option('header','true')</t>
+  </si>
+  <si>
+    <t>.show() -- always implement .show() in pyspark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Installation we learnt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">deep learnning --&gt; </t>
+  </si>
+  <si>
+    <t>collection of neural network --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ann (artificial neural network ) --- data is number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnn ( convolution neural netowrk) ---data image, video, streaming  ---&gt; then we will apply ann </t>
+  </si>
+  <si>
+    <t>rnn (recurrant nerual network) -- data is text, speech, voice ---&gt; then we will apply ann ( advanced nlp )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">god create human neural network ( HNN) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">human create artificial neural network ( ANN) </t>
+  </si>
+  <si>
+    <t>ANN architecture --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation function </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- single layer neural network --&gt; 1 i/p layer, 1 h/l &amp; 1 o/p layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- forward propagation  == feed forward cycle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- backwards propagation == fine tunning of the weight = backward propagation of errors </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- epoch ( fp + bp) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- multi neural network - we have more then 1 hidden layer </t>
+  </si>
+  <si>
+    <t>ACTIVATION FUNCTION --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- SIGMOID AF ---binary class classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- TANH AF -- binary class classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- RELU AF---binary class classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4- LEEKYREALU AF---binary class classification </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- SOFTMAX AF ---mulitclass  classification </t>
+  </si>
+  <si>
+    <t>1- sigmoid activation function --&gt;</t>
+  </si>
+  <si>
+    <t>sigmoid af always impleted in o/p layer ( ann, cnn, rnn)</t>
+  </si>
+  <si>
+    <t>2- tanh activation function --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the data set found as -ve </t>
+  </si>
+  <si>
+    <t>tanh is alwasy implete in o/p layer (</t>
+  </si>
+  <si>
+    <t>tanh activation function range is ==&gt; (-1 to 1)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sigmoid vs tanh </t>
+  </si>
+  <si>
+    <t>3- relu (rectifier) activation function --&gt;</t>
+  </si>
+  <si>
+    <t>relu formula = max(x, 0)</t>
+  </si>
+  <si>
+    <t>max(-1, 0) --&gt; 0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">max(1,2) --&gt; 2 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">relu we never get negative value </t>
+  </si>
+  <si>
+    <t xml:space="preserve">range of relu activation function ==&gt; 0 -- infinity </t>
+  </si>
+  <si>
+    <t>4- leeky relu activation function --&gt;</t>
+  </si>
+  <si>
+    <t>relu &amp; leeky relu works at similar but leeky relu handle -ve vlaue as well x&lt;0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thats why formula -1 to infinity and we not apply max formula </t>
+  </si>
+  <si>
+    <t>range is -1 to infinitye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">leeky relu also apply in i/p &amp; hiddenly layer </t>
+  </si>
+  <si>
+    <t>5- softmax activation function --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">when the data is image, text, multi class classificaiton we can use softmax fuction </t>
+  </si>
+  <si>
+    <t xml:space="preserve">uniform vs gausian vs probablity </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image ( 80% | 90% dog | 10% - horse) </t>
+  </si>
+  <si>
+    <t>binary class -- softmax range is 0-1  (output layer)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">multi class - % of probability </t>
+  </si>
+  <si>
+    <t xml:space="preserve">activation function completed </t>
+  </si>
+  <si>
+    <t>ann neural network architecure completed</t>
+  </si>
+  <si>
+    <t>fp, bp, epoc , adjusted weight - completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">snn vs mnn - compelted </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HNN vs ANN || ex - mosquito exampl </t>
+  </si>
+  <si>
+    <t xml:space="preserve">i/p layer ||h/l layer/  0/p layer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">neuron  | signal | weight | how to pass the signal </t>
+  </si>
+  <si>
+    <t>sigmoid vs tanh  || relu vs leeky relu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">vanishing grdient descend --&gt; old = new weight </t>
+  </si>
+  <si>
+    <t xml:space="preserve">chain rules --&gt; mnn -- we are using chain to reduce overfitting or reduce vgd </t>
+  </si>
+  <si>
+    <t>drop out the neurons --&gt;</t>
+  </si>
+  <si>
+    <t>build the practicle in cpu</t>
+  </si>
+  <si>
+    <t>while we do back propagation if new weight = old weight then vanishing gradeint descend problem occures</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if the modle is overfitting then this probem occure </t>
+  </si>
+  <si>
+    <t>how to over come vgd problem --&gt;</t>
+  </si>
+  <si>
+    <t>drop out &amp; regularizaiton  -- done</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> chain rule --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANN THEORITICAL CONCEPT WE ARE COMPLETED </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANN PRACTICLE --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TENSORFLOW </t>
+  </si>
+  <si>
+    <t>tf.keras.models.Sequential() --&gt;</t>
+  </si>
+  <si>
+    <t>What is sequential () TensorFlow?</t>
+  </si>
+  <si>
+    <t>Get started with TensorFlow 2.0 — Introduction to deep ...</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The sequential model allows us to specify a neural network, precisely, sequential: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">from input to output, passing through a series of neural layers, one after the other. </t>
+  </si>
+  <si>
+    <t>TensorFlow also allows us to use the functional API for building deep learning models.</t>
+  </si>
+  <si>
+    <t>tf.kearas.layer,dense --&gt; densly connecte between 1 neural network to other neural networkd</t>
+  </si>
+  <si>
+    <t>how many optimizer --&gt;</t>
+  </si>
+  <si>
+    <t>1- adam ((Adaptive Moment Estimation))</t>
+  </si>
+  <si>
+    <t>2- adadelta</t>
+  </si>
+  <si>
+    <t>3- adagrade</t>
+  </si>
+  <si>
+    <t>4- rmsprop RMS Prop (Root Mean Square)</t>
+  </si>
+  <si>
+    <t>5- gd</t>
+  </si>
+  <si>
+    <t>6- sgd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- bgd </t>
+  </si>
+  <si>
+    <t>8- Nesterov Accelerated Gradient</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/optimizers-for-training-neural-network-59450d71caf6</t>
+  </si>
+  <si>
+    <t>https://www.analyticsvidhya.com/blog/2021/10/a-comprehensive-guide-on-deep-learning-optimizers/</t>
+  </si>
+  <si>
+    <t>loss function ---&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classificaiton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entropy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">binary_cross entropy -- if the data is number </t>
+  </si>
+  <si>
+    <t xml:space="preserve">category_cross entropy -- if the data is image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regression Loss Functions — used in regression neural networks; given an input value, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">the model predicts a corresponding output value (rather than pre-selected labels); </t>
+  </si>
+  <si>
+    <t>Ex. Mean Squared Error, Mean Absolute Error</t>
+  </si>
+  <si>
+    <t>https://towardsdatascience.com/loss-functions-and-their-use-in-neural-networks-a470e703f1e9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression (loss) | mae | mse | logloss </t>
+  </si>
+  <si>
+    <t>ANN theory &amp; practcile we are complete</t>
+  </si>
+  <si>
+    <t>STEPS TO WORK WITH GPU --&gt;</t>
+  </si>
+  <si>
+    <t>1- google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2- google colab -- create new notebook </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3- run time - change the type from cpu - gpu </t>
+  </si>
+  <si>
+    <t>4- test this a = 5( check you ram &amp; gpu memory)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- past the dataset &amp; if you script file you can paste into google drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">6- left side -- click on files - mount drive </t>
+  </si>
+  <si>
+    <t xml:space="preserve">7- after allowe the permision to mount the drive - you can see drive in left pane </t>
+  </si>
+  <si>
+    <t xml:space="preserve">8- click on the script file </t>
+  </si>
+  <si>
+    <t xml:space="preserve">9- user must change the path location by right click on dataset - copy the path </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10- compare with cpu vs gpu </t>
+  </si>
+  <si>
+    <t>compare the ann model with cpu vs gpu</t>
+  </si>
+  <si>
+    <t>learned on regression for simpl linear regression algorithm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">classificaiton on logistic regression </t>
+  </si>
+  <si>
+    <t>ggplot ( introuduced)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">build ann on pricce predicition | ann classifier in classificaiton model which we build </t>
+  </si>
+  <si>
+    <t>take one project in kgg. &amp; then start work on it for end - to - ed</t>
+  </si>
+  <si>
+    <t>ann -- artificial neural network --&gt; completed ( cpu vs gpu)</t>
+  </si>
+  <si>
+    <t>cnn ( convolution neural network)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- library or frame work ( open CV | YOLO ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HUMAN VISION vs Computer vision </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3d -- rgb (red , green, blue) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">each image the moment when you trained it will split into the pixeel based on size of the image </t>
+  </si>
+  <si>
+    <t>every pixel - 0 to 255</t>
+  </si>
+  <si>
+    <t xml:space="preserve">keras --&gt; img_to_array, ,  arr_to_img </t>
+  </si>
+  <si>
+    <t xml:space="preserve">cnn --&gt; convoltion </t>
+  </si>
+  <si>
+    <t>step-1 : convolution :</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i/p matrix ===&gt; filter ===&gt; o/p matrix </t>
+  </si>
+  <si>
+    <t xml:space="preserve">by defualt filter always be ==&gt; 3 * 3 </t>
+  </si>
+  <si>
+    <t>i/p matrxi * feature detector(filter) =feature map (o/p matrix)</t>
+  </si>
+  <si>
+    <t>n-f + 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n - i/p matrix || f - filter </t>
+  </si>
+  <si>
+    <t>(n-f+1) ==&gt; convolution layer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">convolition --&gt; i/p * feature detector = feature map </t>
+  </si>
+  <si>
+    <t xml:space="preserve">string &amp; padding concept --&gt; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image ---&gt; i/p * filter = o/p </t>
+  </si>
+  <si>
+    <t xml:space="preserve">max pooling layer always apply next to the o/p matrix ( feature map) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">image ==&gt; i/p matriz * filter == o/p matrix ===&gt; max pooling </t>
+  </si>
+  <si>
+    <t>image data , -- data set is definitely very large</t>
+  </si>
+  <si>
+    <t xml:space="preserve">every time when you build image processing you need to train the model with more image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">unique --&gt; data augumentation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">create a more more image from unique image then train to the model </t>
+  </si>
+  <si>
+    <t>STEP-3: FLATTENING --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flatten layer is used to make the multidimensional input one-dimensional, commonly used in the transition </t>
+  </si>
+  <si>
+    <t>from the convolution layer to the full connected layer.</t>
+  </si>
+  <si>
+    <t>STEP-4 : FULLY CONNECTED LAYER --&gt;</t>
+  </si>
+  <si>
+    <t>CNN arcitecture we coverd as well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2d -- black &amp; white </t>
+  </si>
+  <si>
+    <t xml:space="preserve">step -2:  maxpooling </t>
+  </si>
+  <si>
+    <t>data augumentataion --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">create  multiple image | augument from single image then we go for train the model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.tensorflow.org/api_docs/python/tf/keras/preprocessing/image </t>
+  </si>
+  <si>
+    <t>data augment project --&gt;</t>
+  </si>
+  <si>
+    <t>fill_mode: One of {"constant", "nearest", "reflect" or "wrap"}.</t>
+  </si>
+  <si>
+    <t>https://keras.io/api/applications/#usage-examples-for-image-classification-models --&gt; realy raly important</t>
+  </si>
+  <si>
+    <t>it will boost up your productive call</t>
+  </si>
+  <si>
+    <t xml:space="preserve">data augmentiao we are completed </t>
+  </si>
+  <si>
+    <t>image -- convolution -- max pool -- flattening - fully conected layer</t>
+  </si>
+  <si>
+    <t>**** build 1 project ***</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MOOD CLASSIFICAOTN USING CNN </t>
+  </si>
+  <si>
+    <t>- trainng  ( happy | sad) - 2 subfolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- testing ( happy | sad) - 2 subfolder </t>
+  </si>
+  <si>
+    <t>-validation (happy | sad)  - 2 subfolder</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Loads an image into PIL format. --&gt; load_img</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> color_mode: One of "grayscale", "rgb", "rgba". Default: "rgb".</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        The desired image format.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">150 colore dimension space </t>
+  </si>
+  <si>
+    <t xml:space="preserve">target size - height of image * width of image </t>
+  </si>
+  <si>
+    <t>interpolition --&gt; "nearest", "bilinear", and "bicubic"</t>
+  </si>
+  <si>
+    <t>cv2.imread --&gt; The function imread loads an image from the specified file and returns it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tf.keras.layers.Conv2D </t>
+  </si>
+  <si>
+    <t>kernel_initializer=</t>
+  </si>
+  <si>
+    <t>Random Initialization:</t>
+  </si>
+  <si>
+    <t>Xavier/Glorot Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">'glorot_uniform', </t>
+  </si>
+  <si>
+    <t>He Initialization</t>
+  </si>
+  <si>
+    <t>LeCun Initialization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">epoc in ann &amp; epoc in cnn --&gt; learned </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in random forest model how do you decidn how many estimator ?? </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> imagedatagenertor || keras.preprocessing.image</t>
+  </si>
+  <si>
+    <t>installation it will take more times</t>
+  </si>
+  <si>
+    <t>-header=True,inferSchema=True</t>
+  </si>
+  <si>
+    <t>we worked with tensorlfow, kearas, ---pre trained mode</t>
+  </si>
+  <si>
+    <t>- immage proceisnng , video, traincing ---&gt; open cv or yolo ( v1.0 -- yolog v8.0)</t>
+  </si>
+  <si>
+    <t>how to read the image, write the image &amp; display the image opencv</t>
+  </si>
+  <si>
+    <t>cv2.imread() --&gt; The function imread loads an image from the specified file and returns it</t>
+  </si>
+  <si>
+    <t>cv2.imshow() --&gt; function imshow displays an image in the specified window</t>
+  </si>
+  <si>
+    <t>cv2.waitkey() --&gt; The function waitKey waits for a key event infinitely (when \f$\texttt{delay}\leq 0\f$ ) or for delay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv2.destroyAllWindows() --&gt; </t>
+  </si>
+  <si>
+    <t>@brief Destroys all of the HighGUI windows.</t>
+  </si>
+  <si>
+    <t>.   The function destroyAllWindows destroys all of the opened HighGUI windows</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.imwrite() --&gt; </t>
+  </si>
+  <si>
+    <t>The function imwrite saves the image to the specified file. The image format is chosen based on the</t>
+  </si>
+  <si>
+    <t xml:space="preserve">.   filename extension </t>
+  </si>
+  <si>
+    <t>HAARCASCADECLASSIFIER --&gt;</t>
+  </si>
+  <si>
+    <t>Haar cascade classifiers are a type of machine learning algorithm used for image classification tasks.</t>
+  </si>
+  <si>
+    <t>hey are particularly useful for detecting objects with distinct edges, FACE, TEXT</t>
+  </si>
+  <si>
+    <t>https://github.com/opencv/opencv/tree/master/data/haarcascades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CV2.CASCADECLASSIFIER() --&gt; CascadeClassifier method in cv2 module supports the loading of </t>
+  </si>
+  <si>
+    <t>haar-cascade XML files. Here, we need “haarcascade_frontalface_default. xml” for face detection.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It uses a cascade of detectors to identify objects in an image or video stream. </t>
+  </si>
+  <si>
+    <t>The classifier can be trained on a dataset of labeled examples to recognize different object categories.</t>
+  </si>
+  <si>
+    <t>CV2.CVTCOLOR() --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> cv2.cvtColor() is a function in OpenCV that converts image data from one color space to another. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> It takes an image as input and returns the converted image in the specified color space. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The function supports a variety of color spaces, including RGB, HSV, and CMYK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cvtColor() method is used to convert an image from one color space to another. </t>
+  </si>
+  <si>
+    <t>There are more than 150 color-space conversion methods available</t>
+  </si>
+  <si>
+    <t>https://stackoverflow.com/questions/62855718/why-would-cv2-color-rgb2gray-and-cv2-color-bgr2gray-give-different-results</t>
+  </si>
+  <si>
+    <t>CV.DETECTMULTISCALE() --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great! DetectMultiscale is a powerful feature in OpenCV that allows you to detect multiscale </t>
+  </si>
+  <si>
+    <t xml:space="preserve">features in an image. With DetectMultiscale, you can detect multiple scales of a particular feature </t>
+  </si>
+  <si>
+    <t xml:space="preserve">in an image, which can be useful for tasks such as object recognition, image segmentation, and image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">compression. To use DetectMultiscale, you can call the cv.detectMultiscale() function and pass in the image </t>
+  </si>
+  <si>
+    <t>you want to analyze, as well as the scale ranges you want to detect.</t>
+  </si>
+  <si>
+    <t>It takes 3 common arguments — the input image, scaleFactor, and minNeighbours. scaleFactor specifies how much the image size is reduced with each scale.</t>
+  </si>
+  <si>
+    <t>EDGE FEATURE || line feature | rectangle feature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project -- How to detect face &amp; eye from live video </t>
+  </si>
+  <si>
+    <t>project -- car &amp; pedestrian detect using cascade</t>
+  </si>
+  <si>
+    <t>cv2.rectangle --&gt; The cv2.rectangle() function in OpenCV library is used to create a rectangle in an image.</t>
+  </si>
+  <si>
+    <t>v2.rectangle(image, start_point, end_point, color, thickness)</t>
+  </si>
+  <si>
+    <t>Parameters:</t>
+  </si>
+  <si>
+    <t>image: It is the image on which rectangle is to be drawn.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">start_point: It is the starting coordinates of rectangle. </t>
+  </si>
+  <si>
+    <t>The coordinates are represented as tuples of two values i.e. (X coordinate value, Y coordinate value).</t>
+  </si>
+  <si>
+    <t>end_point: It is the ending coordinates of rectangle. The coordinates are represented as tuples of two values i.e. (X coordinate value, Y coordinate value).</t>
+  </si>
+  <si>
+    <t>color: It is the color of border line of rectangle to be drawn. For BGR, we pass a tuple. eg: (255, 0, 0) for blue color.</t>
+  </si>
+  <si>
+    <t>thickness: It is the thickness of the rectangle border line in px. Thickness of -1 px will fill the rectangle shape by the specified color.</t>
+  </si>
+  <si>
+    <t>Return Value: It returns an image.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">selectroi() --&gt; region of interest </t>
+  </si>
+  <si>
+    <t xml:space="preserve">With this method, we can select a range of interest in an image manually by selecting the area on the image. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parameter: window_name: name of the window where selection process will be shown. </t>
+  </si>
+  <si>
+    <t>source image: image to select a ROI.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What is cv2 VideoCapture () == work with webcam() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to get properties of Python cv2.VideoCapture object </t>
+  </si>
+  <si>
+    <t>cv2. VideoCapture is a function of openCV library</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(used for computer vision, machine learning, and image processing) </t>
+  </si>
+  <si>
+    <t>which allows working with video either by capturing via live webcam or by a video file.</t>
+  </si>
+  <si>
+    <t>cap.relase()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">release() Once our work with the video is done, it is required that we release the resources that we </t>
+  </si>
+  <si>
+    <t xml:space="preserve">have initialized for our code. For eg, if the VideoCapture object is using the webcam, then while it is using it, </t>
+  </si>
+  <si>
+    <t>no other process on your system can use the webcam.</t>
+  </si>
+  <si>
+    <t>every video is collection of images --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">video -- image -- image -- image -- image </t>
+  </si>
+  <si>
+    <t xml:space="preserve">In this OpenCV tutorial, we will learn how to apply Gaussian filter for image smoothing or blurring using </t>
+  </si>
+  <si>
+    <t>OpenCV Python with cv2.GaussianBlur() function.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cv2.canny --&gt; Canny edge detection algorithm </t>
+  </si>
+  <si>
+    <t>binary class classfication using cpu</t>
+  </si>
+  <si>
+    <t>project -- multiclass classification using gpu || fruit class classification using gpu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to deply to mobile device we learn today ( </t>
+  </si>
+  <si>
+    <t>mobile -- android | iphone</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3folder in the system </t>
+  </si>
+  <si>
+    <t>manaully if we collect 20k fruits -- &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if you go to the webste lets assure we havd </t>
+  </si>
+  <si>
+    <t>when ever working on multiclass classificaiton --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">train &gt; test &gt; validation </t>
+  </si>
+  <si>
+    <t xml:space="preserve">163 image&gt; 43image &gt; 23image </t>
+  </si>
+  <si>
+    <t>rmsprop -- we will use when input data is image</t>
+  </si>
+  <si>
+    <t>we build the multiclass cnn model --&gt; predictiion -- 96%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hi5 == act simplare as pickle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensolflow lite --&gt; real time </t>
+  </si>
+  <si>
+    <t>deply your ai model to the android device -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tensorflow lite </t>
+  </si>
+  <si>
+    <t>AI model developer -- devloper load data ( dataset is high)</t>
+  </si>
+  <si>
+    <t>save to tflite.py</t>
+  </si>
+  <si>
+    <t xml:space="preserve">backedn devloper --&gt; by using any app ( android developer connect to tflite_model)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to fill missing value using pyspark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn.impute </t>
+  </si>
+  <si>
+    <t>from pyspark.ml.feature import Imputer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fit &amp; transrom also applicabel in pyspark </t>
+  </si>
+  <si>
+    <t xml:space="preserve">sklearn --&gt; mlib </t>
+  </si>
+  <si>
+    <t xml:space="preserve">!wget -- t's a command-line tool for downloading files and directories from the web. It supports HTTP, HTTPS, and FTP </t>
+  </si>
+  <si>
+    <t xml:space="preserve">what next ?? next step is deployement in ai model </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project - Hand Gesture Recognition we are going to build with mediapipe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mediapipe create google </t>
+  </si>
+  <si>
+    <t xml:space="preserve">how  AI is help to communicate to the world </t>
+  </si>
+  <si>
+    <t>https://github.com/google/mediapipe/blob/master/docs/index.rst</t>
+  </si>
+  <si>
+    <t>MediaPipe Objectron -&gt;</t>
+  </si>
+  <si>
+    <t>MediaPipe Objectron processes an RGB image and returns the 3D box landmarks</t>
+  </si>
+  <si>
+    <t>and 2D rectangular bounding box of each detected object.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Project -- 3D Object Detection from images &amp; videos given by url  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediaPipe Holistic utilizes the pose, face and hand landmark models in MediaPipe Pose, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">MediaPipe Face Mesh and MediaPipe Hands respectively to </t>
+  </si>
+  <si>
+    <t>generate a total of 543 landmarks (33 pose landmarks, 468 face landmarks, and 21 hand landmarks per hand).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://developers.google.com/mediapipe/solutions/examples </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time series --&gt; regression algorithm </t>
+  </si>
+  <si>
+    <t>regress vs time series</t>
+  </si>
+  <si>
+    <t xml:space="preserve">regression -- 2 variable </t>
+  </si>
+  <si>
+    <t xml:space="preserve">time series -- 1 variable ( time) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR (AUTO REGRESSIVE) </t>
+  </si>
+  <si>
+    <t>MA (MOVING AVERAGE)</t>
+  </si>
+  <si>
+    <t>ARMA (AR + MA)</t>
+  </si>
+  <si>
+    <t>ARIMA (ARMA with INTEGRATION)</t>
+  </si>
+  <si>
+    <t>ARIMAX (ARMA WITH X-trogeneous factor)</t>
+  </si>
+  <si>
+    <t>SARIMAX ARMA with Seasonal X-trogeneous factor)</t>
+  </si>
+  <si>
+    <t>TIME SERIES DATA -- the data which collectes on regular time interval is called time series data (salary employee)</t>
+  </si>
+  <si>
+    <t>CROSS SECTION DATA -- the data which does not collects on regular time intervale time cross section data (</t>
+  </si>
+  <si>
+    <t>these are the time series pattern --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">trend, seasonal, cyclical, random componenet </t>
+  </si>
+  <si>
+    <t>1- AR MODEL ( Auto regressive ) | AR (p)</t>
+  </si>
+  <si>
+    <t>2-MA --&gt; MA(q)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">we check the past error </t>
+  </si>
+  <si>
+    <t>3- ARMA ( ARp + MA q)</t>
+  </si>
+  <si>
+    <t>4- ARIMA ( ARMA with integration )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in the dataset if you dont find constant mean that is called non stationary </t>
+  </si>
+  <si>
+    <t xml:space="preserve">to convert non stationary to station  --- ARIMA MODEL </t>
+  </si>
+  <si>
+    <t xml:space="preserve">constatn mean </t>
+  </si>
+  <si>
+    <t xml:space="preserve">5- SARIMA (Seasonal AutoRegressive Integrated Moving Average) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">seasonal you can find the constant mean </t>
+  </si>
+  <si>
+    <t>6- ARIMAX(AutoRegressive Integrated Moving Average with eXogenous variables)</t>
+  </si>
+  <si>
+    <t>10 attribute ( impact on your time series )</t>
+  </si>
+  <si>
+    <t>7- SARIMAX(Seasonal AutoRegressive Integrated Moving Average with eXogenous ) --&gt;</t>
+  </si>
+  <si>
+    <t>season &amp; non seaason exogeneour to improve time series forecasting</t>
+  </si>
+  <si>
+    <t>how to convert non stationary - stationary</t>
+  </si>
+  <si>
+    <t>TIME SERIES MODEL --&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AR | MA | ARMA | ARIMA | SARIMA| ARIMAX | SARIMAX </t>
+  </si>
+  <si>
+    <t>project -- object tracking from live installed camera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://pyimagesearch.com/2018/07/30/opencv-object-tracking/ -- please refer this </t>
+  </si>
+  <si>
+    <t>8 tracking algorithm --&gt;</t>
+  </si>
+  <si>
+    <t>MIL Tracker</t>
+  </si>
+  <si>
+    <t>KCF Tracker</t>
+  </si>
+  <si>
+    <t>CSRT Tracker</t>
+  </si>
+  <si>
+    <t>MedianFlow Tracker</t>
+  </si>
+  <si>
+    <t>TLD Tracker:</t>
+  </si>
+  <si>
+    <t>MOSSE Tracker:</t>
+  </si>
+  <si>
+    <t>GOTURN Tracker</t>
+  </si>
+  <si>
+    <t>What is background subtraction for object detection?</t>
+  </si>
+  <si>
+    <t>cv2.createBackgroundSubtractorMOG2()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background subtraction is a widely used approach to detect moving objects in a sequence of </t>
+  </si>
+  <si>
+    <t xml:space="preserve">frames from static cameras. The base in this approach is that of detecting moving objects from the </t>
+  </si>
+  <si>
+    <t>difference between the current frame and reference frame, which is often called 'Background Image' or 'Background Model'.</t>
+  </si>
+  <si>
+    <t>y = f(t-1, t-2 ----) |previous time</t>
+  </si>
+  <si>
+    <t>stock market impacted because of war between isreel vs hamma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mango business cyclical </t>
+  </si>
+  <si>
+    <t>time series data || cross sectional data |white noise</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOOSTING Tracker: </t>
   </si>
 </sst>
 </file>
@@ -3931,10 +5017,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{516616A5-050B-4551-B359-579346BFFA32}">
-  <dimension ref="A1:C991"/>
+  <dimension ref="A1:C1353"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A988" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C995" sqref="C995"/>
+    <sheetView tabSelected="1" topLeftCell="A1339" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C1346" sqref="C1346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -9324,6 +10410,1882 @@
       </c>
       <c r="B991" s="1">
         <v>69</v>
+      </c>
+      <c r="C991" s="1" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="992" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C992" s="1" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="993" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C993" s="1" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="994" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C994" s="1" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="995" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C995" s="1" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="996" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C996" s="1" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="997" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C997" s="1" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="998" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C998" s="1" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="999" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C999" s="1" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1000" s="1" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="1001" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1001" s="1" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1002" s="1" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1003" s="1" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1004" s="1" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="1005" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1005" s="1" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1006" s="1" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1007" s="1" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1008" s="1" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1009" s="1" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1010" s="1" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1011" s="1" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1012" s="1" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1013" s="1" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1014" s="1" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1015" s="1" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1016" s="1" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1017" s="1" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1018" s="1" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1019" s="1" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1020" s="1" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1021" s="1" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1022" s="1" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1023" s="4">
+        <v>45197</v>
+      </c>
+      <c r="B1023" s="1">
+        <v>70</v>
+      </c>
+      <c r="C1023" s="1" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1024" s="1" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1025" s="1" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1026" s="1" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="1027" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1027" s="1" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1028" s="1" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1029" s="1" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1030" s="1" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="1031" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1031" s="1" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1032" s="1" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1033" s="1" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1034" s="1" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1035" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1035" s="1" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1036" s="1" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1037" s="1" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1038" s="1" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1039" s="1" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1040" s="1" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1041" s="1" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1042" s="1" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="1043" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1043" s="1" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1044" s="1" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1045" s="1" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1046" s="1" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="1047" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1047" s="1" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1048" s="1" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1049" s="1" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1050" s="1" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="1051" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1051" s="1" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1052" s="1" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1053" s="1" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="1054" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1054" s="1" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1055" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1055" s="1" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1056" s="1" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1057" s="1" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1058" s="1" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1059" s="1" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1060" s="1" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1061" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1061" s="1" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1062" s="1" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1063" s="1" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1064" s="1" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1065" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1065" s="1" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1066" s="1" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1067" s="1" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1068" s="1" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1069" s="1" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1070" s="1" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1071" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1071" s="1" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1072" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1072" s="1" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1073" s="1" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1074" s="1" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1075" s="1" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1076" s="4">
+        <v>45198</v>
+      </c>
+      <c r="B1076" s="1">
+        <v>71</v>
+      </c>
+      <c r="C1076" s="1" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1077" s="1" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1078" s="1" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1079" s="1" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1080" s="1" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1081" s="1" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1082" s="1" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1083" s="1" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1084" s="1" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1085" s="1" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1086" s="1" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1087" s="1" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1088" s="1" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1089" s="1" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1090" s="1" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1091" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1091" s="1" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1092" s="1" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1093" s="1" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1094" s="1" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1095" s="1" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1096" s="1" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1097" s="1" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1098" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1098" s="1" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1099" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1099" s="1" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1100" s="1" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1101" s="1" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1102" s="1" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1103" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1103" s="1" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1104" s="1" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1105" s="1" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1106" s="1" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1107" s="1" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1108" s="1" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1109" s="1" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1110" s="1" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1111" s="1" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1112" s="1" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1113" s="1" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1114" s="1" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1115" s="1" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1116" s="4">
+        <v>45201</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>72</v>
+      </c>
+      <c r="C1116" s="1" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1117" s="1" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1118" s="1" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1119" s="1" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1120" s="1" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1121" s="1" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1122" s="1" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1123" s="1" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1124" s="1" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1125" s="1" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1126" s="1" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1127" s="1" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1128" s="1" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1129" s="1" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1130" s="1" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1131" s="1" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1132" s="1" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1133" s="1" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1134" s="4">
+        <v>45202</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>73</v>
+      </c>
+      <c r="C1134" s="1" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1135" s="1" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1136" s="1" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1137" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1137" s="1" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1138" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1138" s="1" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1139" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1139" s="1" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1140" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1140" s="1" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1141" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1141" s="1" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1142" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1142" s="1" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1143" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1143" s="1" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1144" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1144" s="1" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1145" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1145" s="1" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1146" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1146" s="1" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1147" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1147" s="1" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1148" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1148" s="1" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1149" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1149" s="1" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1150" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1150" s="1" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1151" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1151" s="1" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1152" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1152" s="1" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1153" s="1" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1154" s="1" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1155" s="1" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1156" s="1" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1157" s="1" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1158" s="1" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1159" s="1" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1160" s="1" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1161" s="1" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1162" s="1" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1163" s="1" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1164" s="1" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1165" s="1" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1166" s="4">
+        <v>45203</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>74</v>
+      </c>
+      <c r="C1166" s="1" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1167" s="1" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1168" s="1" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1169" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1169" s="1" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1170" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1170" s="1" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1171" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1171" s="1" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1172" s="1" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1173" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1173" s="1" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1174" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1174" s="1" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1175" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1175" s="1" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1176" s="1" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1177" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1177" s="1" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1178" s="1" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1179" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1179" s="1" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1180" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1180" s="1" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1181" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1181" s="1" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1182" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1182" s="1" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1183" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1183" s="1" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1184" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1184" s="1" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1185" s="1" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1186" s="1" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1187" s="1" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1188" s="1" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1189" s="1" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1190" s="1" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1191" s="1" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1192" s="1" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1193" s="1" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1194" s="1" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1195" s="1" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1196" s="1" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1197" s="4">
+        <v>45204</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>75</v>
+      </c>
+      <c r="C1197" s="1" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1198" s="1" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1199" s="1" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1200" s="1" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1201" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1201" s="1" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1202" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1202" s="1" t="s">
+        <v>1323</v>
+      </c>
+    </row>
+    <row r="1203" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1203" s="1" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1204" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1204" s="1" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1205" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1205" s="1" t="s">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="1206" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1206" s="1" t="s">
+        <v>1327</v>
+      </c>
+    </row>
+    <row r="1207" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1207" s="1" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="1208" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1208" s="1" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="1209" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1209" s="1" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="1210" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1210" s="1" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="1211" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1211" s="1" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="1212" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1212" s="1" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="1213" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1213" s="1" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="1214" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1214" s="1" t="s">
+        <v>1354</v>
+      </c>
+    </row>
+    <row r="1215" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1215" s="1" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="1216" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1216" s="1" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="1217" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1217" s="1" t="s">
+        <v>1337</v>
+      </c>
+    </row>
+    <row r="1218" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1218" s="1" t="s">
+        <v>1338</v>
+      </c>
+    </row>
+    <row r="1219" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1219" s="1" t="s">
+        <v>1339</v>
+      </c>
+    </row>
+    <row r="1220" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1220" s="1" t="s">
+        <v>1340</v>
+      </c>
+    </row>
+    <row r="1221" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1221" s="1" t="s">
+        <v>1341</v>
+      </c>
+    </row>
+    <row r="1222" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1222" s="1" t="s">
+        <v>1342</v>
+      </c>
+    </row>
+    <row r="1223" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1223" s="1" t="s">
+        <v>1343</v>
+      </c>
+    </row>
+    <row r="1224" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1224" s="1" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="1225" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1225" s="1" t="s">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="1226" spans="3:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1226" s="5" t="s">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="1227" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1227" s="1" t="s">
+        <v>1347</v>
+      </c>
+    </row>
+    <row r="1228" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1228" s="1" t="s">
+        <v>1348</v>
+      </c>
+    </row>
+    <row r="1229" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1229" s="1" t="s">
+        <v>1349</v>
+      </c>
+    </row>
+    <row r="1230" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1230" s="1" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="1231" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1231" s="1" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="1232" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1232" s="1" t="s">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:3" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1233" s="5" t="s">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1234" s="4">
+        <v>45205</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>76</v>
+      </c>
+      <c r="C1234" s="1" t="s">
+        <v>1355</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1235" s="1" t="s">
+        <v>1356</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1236" s="5" t="s">
+        <v>1357</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1237" s="1" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1238" s="1" t="s">
+        <v>1359</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1239" s="1" t="s">
+        <v>1360</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1240" s="1" t="s">
+        <v>1361</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1241" s="1" t="s">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:3" s="5" customFormat="1" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1242" s="5" t="s">
+        <v>1363</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1243" s="5" t="s">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1244" s="5" t="s">
+        <v>1365</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1245" s="1" t="s">
+        <v>1366</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1246" s="1" t="s">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1247" s="1" t="s">
+        <v>1368</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1248" s="1" t="s">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1249" s="1" t="s">
+        <v>1370</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1250" s="1" t="s">
+        <v>1371</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1251" s="1" t="s">
+        <v>1372</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1252" s="1" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1253" s="1" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1254" s="1" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1255" s="1" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1256" s="1" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1257" s="1" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1258" s="1" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1259" s="1" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1260" s="1" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1261" s="1" t="s">
+        <v>1382</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1262" s="1" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1263" s="1" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1264" s="4">
+        <v>45208</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>77</v>
+      </c>
+      <c r="C1264" s="1" t="s">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="1265" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1265" s="1" t="s">
+        <v>1386</v>
+      </c>
+    </row>
+    <row r="1266" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1266" s="1" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="1267" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1267" s="1" t="s">
+        <v>1388</v>
+      </c>
+    </row>
+    <row r="1268" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1268" s="1" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="1269" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1269" s="1" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="1270" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1270" s="1" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="1271" spans="3:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1271" s="5" t="s">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="1272" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1272" s="1" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="1273" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1273" s="1" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="1274" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1274" s="1" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="1275" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1275" s="1" t="s">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="1276" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1276" s="1" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="1277" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1277" s="1" t="s">
+        <v>1410</v>
+      </c>
+    </row>
+    <row r="1278" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1278" s="1" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="1279" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1279" s="1" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="1280" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1280" s="1" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1281" s="1" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1282" s="1" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1283" s="1" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1284" s="1" t="s">
+        <v>1403</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1285" s="1" t="s">
+        <v>1404</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1286" s="1" t="s">
+        <v>1405</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1287" s="1" t="s">
+        <v>1406</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1288" s="1" t="s">
+        <v>1407</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1289" s="1" t="s">
+        <v>1408</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1290" s="4">
+        <v>45209</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>78</v>
+      </c>
+      <c r="C1290" s="1" t="s">
+        <v>1411</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1291" s="1" t="s">
+        <v>1412</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1292" s="1" t="s">
+        <v>1413</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1293" s="1" t="s">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1294" s="1" t="s">
+        <v>1415</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1295" s="1" t="s">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1296" s="1" t="s">
+        <v>1417</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1297" s="1" t="s">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1298" s="1" t="s">
+        <v>1419</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1299" s="1" t="s">
+        <v>1420</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1300" s="5" t="s">
+        <v>1421</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1301" s="1" t="s">
+        <v>1422</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1302" s="4">
+        <v>45210</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>79</v>
+      </c>
+      <c r="C1302" s="1" t="s">
+        <v>1423</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1303" s="1" t="s">
+        <v>1424</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1304" s="1" t="s">
+        <v>1425</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1305" s="1" t="s">
+        <v>1426</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1306" s="1" t="s">
+        <v>1427</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1307" s="1" t="s">
+        <v>1428</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1308" s="1" t="s">
+        <v>1429</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1309" s="1" t="s">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1310" s="1" t="s">
+        <v>1431</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1311" s="1" t="s">
+        <v>1432</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1312" s="5" t="s">
+        <v>1433</v>
+      </c>
+    </row>
+    <row r="1313" spans="3:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1313" s="5" t="s">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="1314" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1314" s="1" t="s">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="1315" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1315" s="1" t="s">
+        <v>1436</v>
+      </c>
+    </row>
+    <row r="1316" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1316" s="1" t="s">
+        <v>1437</v>
+      </c>
+    </row>
+    <row r="1317" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1317" s="1" t="s">
+        <v>1469</v>
+      </c>
+    </row>
+    <row r="1318" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1318" s="1" t="s">
+        <v>1438</v>
+      </c>
+    </row>
+    <row r="1319" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1319" s="1" t="s">
+        <v>1439</v>
+      </c>
+    </row>
+    <row r="1320" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1320" s="1" t="s">
+        <v>1440</v>
+      </c>
+    </row>
+    <row r="1321" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1321" s="1" t="s">
+        <v>1441</v>
+      </c>
+    </row>
+    <row r="1322" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1322" s="1" t="s">
+        <v>1442</v>
+      </c>
+    </row>
+    <row r="1323" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1323" s="1" t="s">
+        <v>1443</v>
+      </c>
+    </row>
+    <row r="1324" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1324" s="1" t="s">
+        <v>1444</v>
+      </c>
+    </row>
+    <row r="1325" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1325" s="1" t="s">
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="1326" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1326" s="1" t="s">
+        <v>1446</v>
+      </c>
+    </row>
+    <row r="1327" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1327" s="1" t="s">
+        <v>1447</v>
+      </c>
+    </row>
+    <row r="1328" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1328" s="1" t="s">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="1329" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1329" s="1" t="s">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="1330" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1330" s="1" t="s">
+        <v>1449</v>
+      </c>
+    </row>
+    <row r="1331" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1331" s="1" t="s">
+        <v>1450</v>
+      </c>
+    </row>
+    <row r="1332" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1332" s="1" t="s">
+        <v>1471</v>
+      </c>
+    </row>
+    <row r="1333" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1333" s="1" t="s">
+        <v>1472</v>
+      </c>
+    </row>
+    <row r="1334" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1334" s="1" t="s">
+        <v>1451</v>
+      </c>
+    </row>
+    <row r="1335" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1335" s="1" t="s">
+        <v>1452</v>
+      </c>
+    </row>
+    <row r="1336" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1336" s="1" t="s">
+        <v>1453</v>
+      </c>
+    </row>
+    <row r="1337" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1337" s="1" t="s">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="1338" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1338" s="1" t="s">
+        <v>1455</v>
+      </c>
+    </row>
+    <row r="1339" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1339" s="1" t="s">
+        <v>1456</v>
+      </c>
+    </row>
+    <row r="1340" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1340" s="1" t="s">
+        <v>1473</v>
+      </c>
+    </row>
+    <row r="1341" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1341" s="1" t="s">
+        <v>1457</v>
+      </c>
+    </row>
+    <row r="1342" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1342" s="1" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="1343" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1343" s="1" t="s">
+        <v>1459</v>
+      </c>
+    </row>
+    <row r="1344" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C1344" s="1" t="s">
+        <v>1460</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1345" s="1" t="s">
+        <v>1461</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1346" s="1" t="s">
+        <v>1462</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1347" s="1" t="s">
+        <v>1463</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1348" s="1" t="s">
+        <v>1464</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1349" s="1" t="s">
+        <v>1465</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1350" s="1" t="s">
+        <v>1466</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C1351" s="1" t="s">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:3" ht="26" x14ac:dyDescent="0.3">
+      <c r="C1352" s="5" t="s">
+        <v>1468</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1353" s="4">
+        <v>45211</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
